--- a/AAII_Financials/Quarterly/ADTX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ADTX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="92">
   <si>
     <t>ADTX</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,55 +665,59 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -741,8 +745,11 @@
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -770,8 +777,11 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -799,8 +809,11 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -812,37 +825,41 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3">
         <v>200</v>
-      </c>
-      <c r="F12" s="3">
-        <v>100</v>
       </c>
       <c r="G12" s="3">
         <v>100</v>
       </c>
       <c r="H12" s="3">
-        <v>0</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J12" s="3">
+        <v>100</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K12" s="3">
         <v>500</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -870,16 +887,19 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -896,11 +916,14 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -928,8 +951,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,37 +964,41 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E17" s="3">
         <v>400</v>
-      </c>
-      <c r="E17" s="3">
-        <v>1000</v>
       </c>
       <c r="F17" s="3">
         <v>1000</v>
       </c>
       <c r="G17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H17" s="3">
         <v>4800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>5100</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -976,28 +1006,31 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
-        <v>-1000</v>
+        <v>-400</v>
       </c>
       <c r="F18" s="3">
         <v>-1000</v>
       </c>
       <c r="G18" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="H18" s="3">
         <v>-4800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-5100</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1009,8 +1042,9 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1035,11 +1069,14 @@
       <c r="J20" s="3">
         <v>0</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1067,20 +1104,23 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
         <v>100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>200</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
       <c r="G22" s="3">
         <v>0</v>
       </c>
@@ -1091,42 +1131,48 @@
         <v>0</v>
       </c>
       <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
         <v>100</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-4800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-5200</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1154,8 +1200,11 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,66 +1232,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-4800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-5200</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-4800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-5200</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,8 +1328,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1299,8 +1360,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1392,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,8 +1424,11 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1383,40 +1453,46 @@
       <c r="J32" s="3">
         <v>0</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-4800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-5200</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,71 +1520,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-4800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-5200</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1605,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,13 +1619,14 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>13700</v>
       </c>
       <c r="E41" s="3">
         <v>0</v>
@@ -1550,8 +1637,8 @@
       <c r="G41" s="3">
         <v>0</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
+      <c r="H41" s="3">
+        <v>0</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1562,8 +1649,11 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1591,8 +1681,11 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1620,8 +1713,11 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1649,16 +1745,19 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>3</v>
+        <v>600</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>3</v>
@@ -1678,25 +1777,28 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>14300</v>
+      </c>
+      <c r="E46" s="3">
         <v>100</v>
       </c>
-      <c r="E46" s="3">
-        <v>0</v>
-      </c>
       <c r="F46" s="3">
         <v>0</v>
       </c>
       <c r="G46" s="3">
         <v>0</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
+      <c r="H46" s="3">
+        <v>0</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1707,66 +1809,75 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
-      </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
-      </c>
-      <c r="E48" s="3">
-        <v>0</v>
-      </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
-      <c r="J48" s="3">
-        <v>0</v>
+        <v>1000</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1794,8 +1905,11 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +1937,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,23 +1969,26 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
         <v>500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>100</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
       </c>
@@ -1881,8 +2001,11 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,25 +2033,28 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>15400</v>
+      </c>
+      <c r="E54" s="3">
         <v>600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>100</v>
       </c>
-      <c r="G54" s="3">
-        <v>0</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
+      <c r="H54" s="3">
+        <v>0</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -1939,8 +2065,11 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2081,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,26 +2095,27 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>400</v>
+      </c>
+      <c r="E57" s="3">
         <v>2300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1700</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
       </c>
@@ -1994,26 +2125,29 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
         <v>800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>100</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2023,26 +2157,29 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>300</v>
+      </c>
+      <c r="E59" s="3">
         <v>1200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>800</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2052,26 +2189,29 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>800</v>
+      </c>
+      <c r="E60" s="3">
         <v>4300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2700</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2081,8 +2221,11 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2110,37 +2253,43 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
-      </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
+        <v>900</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2317,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2349,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,26 +2381,29 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E66" s="3">
         <v>4300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2700</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2255,8 +2413,11 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2429,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2459,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,8 +2491,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2355,8 +2523,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,26 +2555,29 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-16200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-13500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-12900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-11700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-10700</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2413,8 +2587,11 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2619,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +2651,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,26 +2683,29 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>13700</v>
+      </c>
+      <c r="E76" s="3">
         <v>-3700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-3500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-2900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-2700</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2529,8 +2715,11 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,71 +2747,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-4800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-5200</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,8 +2832,9 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2663,8 +2862,11 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +2894,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +2926,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +2958,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +2990,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,37 +3022,43 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-300</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
       <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
         <v>-400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-200</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
       <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
         <v>-400</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,8 +3070,9 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2879,8 +3100,11 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3132,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,8 +3164,11 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -2966,8 +3196,11 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,8 +3212,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3008,8 +3242,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3274,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3306,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,37 +3338,43 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>17500</v>
+      </c>
+      <c r="E100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>300</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>500</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3153,13 +3402,16 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>13700</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>
@@ -3168,18 +3420,21 @@
         <v>0</v>
       </c>
       <c r="G102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H102" s="3">
         <v>-100</v>
       </c>
       <c r="I102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J102" s="3">
         <v>100</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
-      <c r="K102" s="3" t="s">
+      <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ADTX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ADTX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="92">
   <si>
     <t>ADTX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,59 +665,66 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -748,8 +755,14 @@
       <c r="L8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -780,8 +793,14 @@
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,8 +831,14 @@
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -826,40 +851,48 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>900</v>
+      </c>
+      <c r="E12" s="3">
+        <v>400</v>
+      </c>
+      <c r="F12" s="3">
         <v>300</v>
       </c>
-      <c r="E12" s="3">
-        <v>0</v>
-      </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3">
         <v>200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>100</v>
       </c>
-      <c r="I12" s="3">
-        <v>0</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K12" s="3">
+        <v>0</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3">
         <v>500</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,22 +923,28 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
+      <c r="D14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
@@ -919,11 +958,17 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -954,8 +999,14 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -965,40 +1016,48 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E17" s="3">
+        <v>4700</v>
+      </c>
+      <c r="F17" s="3">
         <v>2700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>1000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>4800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>5100</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1006,31 +1065,37 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="G18" s="3">
         <v>-400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-1000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-1000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-4800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-1200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-5100</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1043,8 +1108,10 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1072,19 +1139,25 @@
       <c r="K20" s="3">
         <v>0</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>3</v>
+      <c r="E21" s="3">
+        <v>-4700</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>3</v>
@@ -1107,26 +1180,32 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
         <v>100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>200</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
       <c r="I22" s="3">
         <v>0</v>
       </c>
@@ -1134,45 +1213,57 @@
         <v>0</v>
       </c>
       <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
         <v>100</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="F23" s="3">
         <v>-2700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-1200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-1000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-4800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-1200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-5200</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1203,8 +1294,14 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1235,72 +1332,90 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="F26" s="3">
         <v>-2700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-1200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-1000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-4800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-1200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-5200</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="F27" s="3">
         <v>-2700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-1200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-1000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-4800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-1200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-5200</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1331,8 +1446,14 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1363,8 +1484,14 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1395,8 +1522,14 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1427,8 +1560,14 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1456,43 +1595,55 @@
       <c r="K32" s="3">
         <v>0</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="F33" s="3">
         <v>-2700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-1200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-1000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-4800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-1200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-5200</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1523,77 +1674,95 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="F35" s="3">
         <v>-2700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-1200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-1000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-4800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-1200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-5200</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1606,8 +1775,10 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1620,31 +1791,33 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>10500</v>
+      </c>
+      <c r="F41" s="3">
         <v>13700</v>
       </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
       <c r="G41" s="3">
         <v>0</v>
       </c>
       <c r="H41" s="3">
         <v>0</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
+      <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
+        <v>0</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
@@ -1652,8 +1825,14 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1684,8 +1863,14 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1716,8 +1901,14 @@
       <c r="L43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1748,22 +1939,28 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>800</v>
+      </c>
+      <c r="E45" s="3">
+        <v>500</v>
+      </c>
+      <c r="F45" s="3">
         <v>600</v>
       </c>
-      <c r="E45" s="3">
-        <v>0</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
+      <c r="G45" s="3">
+        <v>0</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -1780,31 +1977,37 @@
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>14800</v>
+      </c>
+      <c r="E46" s="3">
+        <v>11000</v>
+      </c>
+      <c r="F46" s="3">
         <v>14300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>100</v>
       </c>
-      <c r="F46" s="3">
-        <v>0</v>
-      </c>
-      <c r="G46" s="3">
-        <v>0</v>
-      </c>
       <c r="H46" s="3">
         <v>0</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
+      <c r="I46" s="3">
+        <v>0</v>
+      </c>
+      <c r="J46" s="3">
+        <v>0</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
@@ -1812,19 +2015,25 @@
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
         <v>100</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
+      <c r="E47" s="3">
+        <v>100</v>
+      </c>
+      <c r="F47" s="3">
+        <v>100</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
@@ -1838,26 +2047,32 @@
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
-      </c>
-      <c r="L47" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F48" s="3">
         <v>1000</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1870,37 +2085,43 @@
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
-      </c>
-      <c r="L48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
+        <v>300</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
@@ -1908,8 +2129,14 @@
       <c r="L49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1940,8 +2167,14 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1972,29 +2205,35 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>0</v>
+      <c r="D52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
         <v>500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>100</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2004,8 +2243,14 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2036,31 +2281,37 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>13100</v>
+      </c>
+      <c r="F54" s="3">
         <v>15400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>100</v>
       </c>
-      <c r="H54" s="3">
-        <v>0</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
+      <c r="J54" s="3">
+        <v>0</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
@@ -2068,8 +2319,14 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2082,8 +2339,10 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2096,141 +2355,167 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>200</v>
+      </c>
+      <c r="F57" s="3">
         <v>400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>2300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>2000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>1800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>1700</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>1300</v>
       </c>
       <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
         <v>800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>100</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F59" s="3">
         <v>300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>1200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>1100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>1000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>800</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F60" s="3">
         <v>800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>4300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>3700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>3000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>2700</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>1900</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2256,19 +2541,25 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E62" s="3">
         <v>900</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
+      <c r="F62" s="3">
+        <v>900</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
@@ -2282,14 +2573,20 @@
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
-      </c>
-      <c r="L62" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2320,8 +2617,14 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2352,8 +2655,14 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2384,40 +2693,52 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F66" s="3">
         <v>1600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>4300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>3700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>3000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>2700</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2430,8 +2751,10 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2462,8 +2785,14 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2494,8 +2823,14 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2526,8 +2861,14 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2558,40 +2899,52 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-27300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-20900</v>
+      </c>
+      <c r="F72" s="3">
         <v>-16200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-13500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-12900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-11700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-10700</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2622,8 +2975,14 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2654,8 +3013,14 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2686,40 +3051,52 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E76" s="3">
+        <v>11000</v>
+      </c>
+      <c r="F76" s="3">
         <v>13700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-3700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-3500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-2900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-2700</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2750,77 +3127,95 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="F81" s="3">
         <v>-2700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-1200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-1000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-4800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-1200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-5200</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2833,31 +3228,33 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E83" s="3">
         <v>0</v>
       </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
+      <c r="F83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
@@ -2865,8 +3262,14 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2897,8 +3300,14 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2929,8 +3338,14 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2961,8 +3376,14 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2993,8 +3414,14 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3025,40 +3452,52 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="F89" s="3">
         <v>-3700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-300</v>
       </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
         <v>-400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-200</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
         <v>-400</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3071,31 +3510,33 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="F91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -3103,8 +3544,14 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3135,8 +3582,14 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3167,31 +3620,37 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
+      <c r="F94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
@@ -3199,8 +3658,14 @@
       <c r="L94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3213,8 +3678,10 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3245,8 +3712,14 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3277,8 +3750,14 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3309,8 +3788,14 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3341,40 +3826,52 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F100" s="3">
         <v>17500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>200</v>
-      </c>
-      <c r="F100" s="3">
-        <v>300</v>
-      </c>
-      <c r="G100" s="3">
-        <v>0</v>
       </c>
       <c r="H100" s="3">
         <v>300</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>300</v>
+      </c>
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>500</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3405,36 +3902,48 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="F102" s="3">
         <v>13700</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
         <v>0</v>
       </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>100</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
-      <c r="L102" s="3" t="s">
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ADTX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ADTX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="92">
   <si>
     <t>ADTX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,66 +665,70 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -761,8 +765,11 @@
       <c r="N8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -799,8 +806,11 @@
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -837,8 +847,11 @@
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -853,46 +866,50 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="3">
         <v>900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>300</v>
       </c>
-      <c r="G12" s="3">
-        <v>0</v>
-      </c>
       <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3">
         <v>200</v>
-      </c>
-      <c r="I12" s="3">
-        <v>100</v>
       </c>
       <c r="J12" s="3">
         <v>100</v>
       </c>
       <c r="K12" s="3">
-        <v>0</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M12" s="3">
+        <v>100</v>
+      </c>
+      <c r="L12" s="3">
+        <v>0</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="3">
         <v>500</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -929,22 +946,25 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
@@ -964,11 +984,14 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1005,8 +1028,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1018,46 +1044,50 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="3">
         <v>6100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>400</v>
-      </c>
-      <c r="H17" s="3">
-        <v>1000</v>
       </c>
       <c r="I17" s="3">
         <v>1000</v>
       </c>
       <c r="J17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K17" s="3">
         <v>4800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5100</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1065,37 +1095,40 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-4700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-2700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-400</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-1000</v>
       </c>
       <c r="I18" s="3">
         <v>-1000</v>
       </c>
       <c r="J18" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="K18" s="3">
         <v>-4800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-5100</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1110,8 +1143,9 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1145,11 +1179,14 @@
       <c r="M20" s="3">
         <v>0</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1157,11 +1194,11 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="F21" s="3">
         <v>-4700</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1186,29 +1223,32 @@
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="3">
         <v>300</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
       <c r="F22" s="3">
         <v>0</v>
       </c>
       <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
         <v>100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>200</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
       <c r="J22" s="3">
         <v>0</v>
       </c>
@@ -1219,51 +1259,57 @@
         <v>0</v>
       </c>
       <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
         <v>100</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="3">
         <v>-6400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-4700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-4800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-5200</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1300,8 +1346,11 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1338,84 +1387,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="3">
         <v>-6400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-4700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-4800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-5200</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="3">
         <v>-6400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-4700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-4800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-5200</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1452,8 +1510,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1490,8 +1551,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1528,8 +1592,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1566,8 +1633,11 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1601,49 +1671,55 @@
       <c r="M32" s="3">
         <v>0</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="3">
         <v>-6400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-4700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-4800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-5200</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1680,89 +1756,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="3">
         <v>-6400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-4700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-4800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-5200</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1777,8 +1862,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1793,23 +1879,24 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E41" s="3">
         <v>14000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>10500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>13700</v>
       </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
       <c r="H41" s="3">
         <v>0</v>
       </c>
@@ -1819,8 +1906,8 @@
       <c r="J41" s="3">
         <v>0</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
+      <c r="K41" s="3">
+        <v>0</v>
       </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
@@ -1831,8 +1918,11 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1869,8 +1959,11 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1907,8 +2000,11 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1945,25 +2041,28 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E45" s="3">
         <v>800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>600</v>
       </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
+      <c r="H45" s="3">
+        <v>0</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -1983,34 +2082,37 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E46" s="3">
         <v>14800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>11000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>14300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>100</v>
       </c>
-      <c r="H46" s="3">
-        <v>0</v>
-      </c>
       <c r="I46" s="3">
         <v>0</v>
       </c>
       <c r="J46" s="3">
         <v>0</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
+      <c r="K46" s="3">
+        <v>0</v>
       </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
@@ -2021,13 +2123,16 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E47" s="3">
         <v>100</v>
@@ -2035,8 +2140,8 @@
       <c r="F47" s="3">
         <v>100</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
+      <c r="G47" s="3">
+        <v>100</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
@@ -2053,29 +2158,32 @@
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M47" s="3">
-        <v>0</v>
+      <c r="M47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E48" s="3">
         <v>2800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1000</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2091,14 +2199,17 @@
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M48" s="3">
-        <v>0</v>
+      <c r="M48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2108,8 +2219,8 @@
       <c r="E49" s="3">
         <v>300</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>3</v>
+      <c r="F49" s="3">
+        <v>300</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
@@ -2123,8 +2234,8 @@
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
+      <c r="K49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L49" s="3">
         <v>0</v>
@@ -2135,8 +2246,11 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2173,8 +2287,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2211,32 +2328,35 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E52" s="3">
-        <v>0</v>
+      <c r="E52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F52" s="3">
         <v>0</v>
       </c>
       <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
         <v>500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>100</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2249,8 +2369,11 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2287,34 +2410,37 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>15900</v>
+      </c>
+      <c r="E54" s="3">
         <v>18000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>13100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>15400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>100</v>
       </c>
-      <c r="J54" s="3">
-        <v>0</v>
-      </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
+      <c r="K54" s="3">
+        <v>0</v>
       </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
@@ -2325,8 +2451,11 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2341,8 +2470,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2357,35 +2487,36 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E57" s="3">
         <v>1000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1700</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2395,35 +2526,38 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E58" s="3">
         <v>1300</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
       <c r="F58" s="3">
         <v>0</v>
       </c>
       <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
         <v>800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>100</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2433,35 +2567,38 @@
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E59" s="3">
         <v>1100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>800</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2471,35 +2608,38 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E60" s="3">
         <v>3400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2700</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2509,17 +2649,20 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E61" s="3">
         <v>1900</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
@@ -2547,22 +2690,25 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E62" s="3">
         <v>1400</v>
-      </c>
-      <c r="E62" s="3">
-        <v>900</v>
       </c>
       <c r="F62" s="3">
         <v>900</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
+      <c r="G62" s="3">
+        <v>900</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2579,14 +2725,17 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
+      <c r="M62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2623,8 +2772,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2661,8 +2813,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2699,35 +2854,38 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E66" s="3">
         <v>6600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2700</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2737,8 +2895,11 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2753,8 +2914,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2791,8 +2953,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2829,8 +2994,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2867,8 +3035,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2905,35 +3076,38 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-33400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-27300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-20900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-16200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-13500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-12900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-11700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-10700</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2943,8 +3117,11 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2981,8 +3158,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3019,8 +3199,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3057,35 +3240,38 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E76" s="3">
         <v>11400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>11000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>13700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-3700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-3500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-2900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-2700</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3095,8 +3281,11 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3133,89 +3322,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81" s="3">
         <v>-6400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-4700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-4800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-5200</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3230,8 +3428,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3239,10 +3438,10 @@
         <v>100</v>
       </c>
       <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="F83" s="3">
+        <v>0</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>3</v>
@@ -3256,8 +3455,8 @@
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
+      <c r="K83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
@@ -3268,8 +3467,11 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3306,8 +3508,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3344,8 +3549,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3382,8 +3590,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3420,8 +3631,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3458,46 +3672,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-4100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-3100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-3700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-300</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
       <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
         <v>-400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-200</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
       <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
         <v>-400</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3512,19 +3732,20 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-500</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>3</v>
+      <c r="F91" s="3">
+        <v>0</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>3</v>
@@ -3538,8 +3759,8 @@
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
@@ -3550,8 +3771,11 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3588,8 +3812,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3626,19 +3853,22 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-500</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>3</v>
+      <c r="F94" s="3">
+        <v>0</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>3</v>
@@ -3652,8 +3882,8 @@
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
+      <c r="K94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L94" s="3">
         <v>0</v>
@@ -3664,8 +3894,11 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3680,8 +3913,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3718,8 +3952,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3756,8 +3993,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3794,8 +4034,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3832,46 +4075,52 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E100" s="3">
         <v>8100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>17500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>300</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>200</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>500</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3908,23 +4157,26 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="E102" s="3">
         <v>3500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-3200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>13700</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
         <v>0</v>
       </c>
@@ -3932,18 +4184,21 @@
         <v>0</v>
       </c>
       <c r="J102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K102" s="3">
         <v>-100</v>
       </c>
       <c r="L102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M102" s="3">
         <v>100</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
-      <c r="N102" s="3" t="s">
+      <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ADTX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ADTX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="92">
   <si>
     <t>ADTX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,70 +665,74 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -768,8 +772,11 @@
       <c r="O8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -809,8 +816,11 @@
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -850,8 +860,11 @@
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -867,49 +880,53 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>3</v>
+      <c r="D12" s="3">
+        <v>1500</v>
       </c>
       <c r="E12" s="3">
         <v>900</v>
       </c>
       <c r="F12" s="3">
+        <v>900</v>
+      </c>
+      <c r="G12" s="3">
         <v>400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>300</v>
       </c>
-      <c r="H12" s="3">
-        <v>0</v>
-      </c>
       <c r="I12" s="3">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3">
         <v>200</v>
-      </c>
-      <c r="J12" s="3">
-        <v>100</v>
       </c>
       <c r="K12" s="3">
         <v>100</v>
       </c>
       <c r="L12" s="3">
-        <v>0</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N12" s="3">
+        <v>100</v>
+      </c>
+      <c r="M12" s="3">
+        <v>0</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O12" s="3">
         <v>500</v>
       </c>
-      <c r="O12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -949,19 +966,22 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="D14" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -987,11 +1007,14 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1031,8 +1054,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1045,49 +1071,53 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>3</v>
+      <c r="D17" s="3">
+        <v>8600</v>
       </c>
       <c r="E17" s="3">
+        <v>5800</v>
+      </c>
+      <c r="F17" s="3">
         <v>6100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>400</v>
-      </c>
-      <c r="I17" s="3">
-        <v>1000</v>
       </c>
       <c r="J17" s="3">
         <v>1000</v>
       </c>
       <c r="K17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L17" s="3">
         <v>4800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5100</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1095,40 +1125,43 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="F18" s="3">
         <v>-6100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-4700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-2700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-400</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-1000</v>
       </c>
       <c r="J18" s="3">
         <v>-1000</v>
       </c>
       <c r="K18" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="L18" s="3">
         <v>-4800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-5100</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1144,8 +1177,9 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1182,11 +1216,14 @@
       <c r="N20" s="3">
         <v>0</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1194,14 +1231,14 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="F21" s="3">
         <v>-6000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-4700</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1226,32 +1263,35 @@
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>3</v>
+      <c r="D22" s="3">
+        <v>1200</v>
       </c>
       <c r="E22" s="3">
+        <v>400</v>
+      </c>
+      <c r="F22" s="3">
         <v>300</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
       <c r="G22" s="3">
         <v>0</v>
       </c>
       <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
         <v>100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>200</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
@@ -1262,54 +1302,60 @@
         <v>0</v>
       </c>
       <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
         <v>100</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>3</v>
+      <c r="D23" s="3">
+        <v>-9800</v>
       </c>
       <c r="E23" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="F23" s="3">
         <v>-6400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-4700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-4800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-5200</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1349,8 +1395,11 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1390,90 +1439,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>3</v>
+      <c r="D26" s="3">
+        <v>-9800</v>
       </c>
       <c r="E26" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="F26" s="3">
         <v>-6400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-4700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-2700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-4800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-5200</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>3</v>
+      <c r="D27" s="3">
+        <v>-9800</v>
       </c>
       <c r="E27" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="F27" s="3">
         <v>-6400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-4700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-4800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-5200</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1513,8 +1571,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1554,8 +1615,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1595,8 +1659,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1636,8 +1703,11 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1674,52 +1744,58 @@
       <c r="N32" s="3">
         <v>0</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>3</v>
+      <c r="D33" s="3">
+        <v>-9800</v>
       </c>
       <c r="E33" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="F33" s="3">
         <v>-6400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-4700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-4800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-5200</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1759,95 +1835,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>3</v>
+      <c r="D35" s="3">
+        <v>-9800</v>
       </c>
       <c r="E35" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="F35" s="3">
         <v>-6400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-4700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-4800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-5200</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1863,8 +1948,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1880,26 +1966,27 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E41" s="3">
         <v>8600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>14000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>10500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>13700</v>
       </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
       <c r="I41" s="3">
         <v>0</v>
       </c>
@@ -1909,8 +1996,8 @@
       <c r="K41" s="3">
         <v>0</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
+      <c r="L41" s="3">
+        <v>0</v>
       </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
@@ -1921,8 +2008,11 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1962,31 +2052,34 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
-      </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
+        <v>6500</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
@@ -2003,8 +2096,11 @@
       <c r="O43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2044,28 +2140,31 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>400</v>
+      </c>
+      <c r="E45" s="3">
         <v>1300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>600</v>
       </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
+      <c r="I45" s="3">
+        <v>0</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
@@ -2085,37 +2184,40 @@
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>12400</v>
+      </c>
+      <c r="E46" s="3">
         <v>9900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>14800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>11000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>14300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>100</v>
       </c>
-      <c r="I46" s="3">
-        <v>0</v>
-      </c>
       <c r="J46" s="3">
         <v>0</v>
       </c>
       <c r="K46" s="3">
         <v>0</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
+      <c r="L46" s="3">
+        <v>0</v>
       </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
@@ -2126,8 +2228,11 @@
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2135,7 +2240,7 @@
         <v>300</v>
       </c>
       <c r="E47" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="F47" s="3">
         <v>100</v>
@@ -2143,8 +2248,8 @@
       <c r="G47" s="3">
         <v>100</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
+      <c r="H47" s="3">
+        <v>100</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
@@ -2161,32 +2266,35 @@
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N47" s="3">
-        <v>0</v>
+      <c r="N47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E48" s="3">
         <v>5400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1000</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2202,19 +2310,22 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N48" s="3">
-        <v>0</v>
+      <c r="N48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E49" s="3">
         <v>300</v>
@@ -2222,8 +2333,8 @@
       <c r="F49" s="3">
         <v>300</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
+      <c r="G49" s="3">
+        <v>300</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
@@ -2237,8 +2348,8 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L49" s="3">
-        <v>0</v>
+      <c r="L49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M49" s="3">
         <v>0</v>
@@ -2249,8 +2360,11 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2290,8 +2404,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2331,35 +2448,38 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0</v>
+      <c r="D52" s="3">
+        <v>400</v>
+      </c>
+      <c r="E52" s="3">
+        <v>100</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G52" s="3">
         <v>0</v>
       </c>
       <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
         <v>500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>100</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2372,8 +2492,11 @@
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2413,37 +2536,40 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>19600</v>
+      </c>
+      <c r="E54" s="3">
         <v>15900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>18000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>13100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>15400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>100</v>
       </c>
-      <c r="K54" s="3">
-        <v>0</v>
-      </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
+      <c r="L54" s="3">
+        <v>0</v>
       </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
@@ -2454,8 +2580,11 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2471,8 +2600,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2488,38 +2618,39 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E57" s="3">
         <v>1200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1700</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2529,38 +2660,41 @@
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E58" s="3">
         <v>2300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1300</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
       <c r="G58" s="3">
         <v>0</v>
       </c>
       <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
         <v>800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>100</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2570,38 +2704,41 @@
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E59" s="3">
         <v>1800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>800</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2611,38 +2748,41 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E60" s="3">
         <v>5200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>4300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2700</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2652,20 +2792,23 @@
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
         <v>1300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1900</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -2693,25 +2836,28 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E62" s="3">
         <v>3400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1400</v>
-      </c>
-      <c r="F62" s="3">
-        <v>900</v>
       </c>
       <c r="G62" s="3">
         <v>900</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
+      <c r="H62" s="3">
+        <v>900</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
@@ -2728,14 +2874,17 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
+      <c r="N62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2775,8 +2924,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2816,8 +2968,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2857,38 +3012,41 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E66" s="3">
         <v>9900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>6600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2700</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2898,8 +3056,11 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2915,8 +3076,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2956,8 +3118,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2997,8 +3162,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3038,8 +3206,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3079,38 +3250,41 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-43300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-33400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-27300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-20900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-16200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-13500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-12900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-11700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-10700</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3120,8 +3294,11 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3161,8 +3338,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3202,8 +3382,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3243,38 +3426,41 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E76" s="3">
         <v>6000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>11400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>11000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>13700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-3700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-3500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-2900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-2700</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3284,8 +3470,11 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3325,95 +3514,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>3</v>
+      <c r="D81" s="3">
+        <v>-9800</v>
       </c>
       <c r="E81" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="F81" s="3">
         <v>-6400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-4700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-4800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-5200</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3429,8 +3627,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3441,10 +3640,10 @@
         <v>100</v>
       </c>
       <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="G83" s="3">
+        <v>0</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
@@ -3458,8 +3657,8 @@
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L83" s="3">
-        <v>0</v>
+      <c r="L83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M83" s="3">
         <v>0</v>
@@ -3470,8 +3669,11 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3511,8 +3713,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3552,8 +3757,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3593,8 +3801,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3634,8 +3845,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3675,49 +3889,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-5000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-4100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-3100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-3700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-300</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
       <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
         <v>-400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-200</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
       <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
         <v>-400</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3733,8 +3953,9 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3742,13 +3963,13 @@
         <v>-200</v>
       </c>
       <c r="E91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F91" s="3">
         <v>-500</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
+      <c r="G91" s="3">
+        <v>0</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
@@ -3762,8 +3983,8 @@
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="L91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
@@ -3774,8 +3995,11 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3815,8 +4039,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3856,22 +4083,25 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-500</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
+      <c r="G94" s="3">
+        <v>0</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -3885,8 +4115,8 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
+      <c r="L94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M94" s="3">
         <v>0</v>
@@ -3897,8 +4127,11 @@
       <c r="O94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3914,8 +4147,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3955,8 +4189,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3996,8 +4233,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4037,8 +4277,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4078,49 +4321,55 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>8100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>17500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>300</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>200</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>500</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4160,26 +4409,29 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-5400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>3500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-3200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>13700</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
         <v>0</v>
       </c>
@@ -4187,18 +4439,21 @@
         <v>0</v>
       </c>
       <c r="K102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L102" s="3">
         <v>-100</v>
       </c>
       <c r="M102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N102" s="3">
         <v>100</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
-      <c r="O102" s="3" t="s">
+      <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ADTX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ADTX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="92">
   <si>
     <t>ADTX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,97 +665,100 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
+      <c r="D8" s="3">
+        <v>100</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K8" s="3">
         <v>0</v>
@@ -775,13 +778,16 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>3</v>
+      <c r="D9" s="3">
+        <v>100</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>3</v>
@@ -819,13 +825,16 @@
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>3</v>
+      <c r="D10" s="3">
+        <v>0</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>3</v>
@@ -863,8 +872,11 @@
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,52 +893,56 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E12" s="3">
         <v>1500</v>
-      </c>
-      <c r="E12" s="3">
-        <v>900</v>
       </c>
       <c r="F12" s="3">
         <v>900</v>
       </c>
       <c r="G12" s="3">
+        <v>900</v>
+      </c>
+      <c r="H12" s="3">
         <v>400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>300</v>
       </c>
-      <c r="I12" s="3">
-        <v>0</v>
-      </c>
       <c r="J12" s="3">
+        <v>0</v>
+      </c>
+      <c r="K12" s="3">
         <v>200</v>
-      </c>
-      <c r="K12" s="3">
-        <v>100</v>
       </c>
       <c r="L12" s="3">
         <v>100</v>
       </c>
       <c r="M12" s="3">
-        <v>0</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O12" s="3">
+        <v>100</v>
+      </c>
+      <c r="N12" s="3">
+        <v>0</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P12" s="3">
         <v>500</v>
       </c>
-      <c r="P12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,22 +985,25 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>2500</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
@@ -1010,11 +1029,14 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1079,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1097,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>24100</v>
+      </c>
+      <c r="E17" s="3">
         <v>8600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>5800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>6100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>400</v>
-      </c>
-      <c r="J17" s="3">
-        <v>1000</v>
       </c>
       <c r="K17" s="3">
         <v>1000</v>
       </c>
       <c r="L17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M17" s="3">
         <v>4800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5100</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="3">
-        <v>-5800</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-6100</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-4700</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-2700</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-400</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-1000</v>
+      <c r="D18" s="3">
+        <v>-24000</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K18" s="3">
         <v>-1000</v>
       </c>
       <c r="L18" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="M18" s="3">
         <v>-4800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-5100</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,31 +1210,32 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
+      <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K20" s="3">
         <v>0</v>
@@ -1219,25 +1252,28 @@
       <c r="O20" s="3">
         <v>0</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="3">
-        <v>-5600</v>
-      </c>
-      <c r="F21" s="3">
-        <v>-6000</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-4700</v>
+      <c r="D21" s="3">
+        <v>-23900</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1266,35 +1302,38 @@
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
         <v>1200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>300</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
       <c r="H22" s="3">
         <v>0</v>
       </c>
       <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
         <v>100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>200</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
       <c r="L22" s="3">
         <v>0</v>
       </c>
@@ -1305,57 +1344,63 @@
         <v>0</v>
       </c>
       <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
         <v>100</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-24100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-9800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-6200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-6400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-4700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-4800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-5200</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1398,8 +1443,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1490,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-24100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-9800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-6200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-6400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-4700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-4800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-5200</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-24100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-9800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-6200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-6400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-4700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-4800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-5200</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1631,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1678,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1725,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,31 +1772,34 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
-        <v>0</v>
+      <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K32" s="3">
         <v>0</v>
@@ -1747,55 +1816,61 @@
       <c r="O32" s="3">
         <v>0</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-24100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-9800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-6200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-6400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-4700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-2700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-4800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-5200</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1913,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-24100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-9800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-6200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-6400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-4700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-2700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-4800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-5200</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2033,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,29 +2052,30 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E41" s="3">
         <v>5500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>8600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>14000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>10500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>13700</v>
       </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
       <c r="J41" s="3">
         <v>0</v>
       </c>
@@ -1999,8 +2085,8 @@
       <c r="L41" s="3">
         <v>0</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
+      <c r="M41" s="3">
+        <v>0</v>
       </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
@@ -2011,8 +2097,11 @@
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,17 +2144,20 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>600</v>
+      </c>
+      <c r="E43" s="3">
         <v>6500</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2081,8 +2173,8 @@
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
+      <c r="K43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L43" s="3">
         <v>0</v>
@@ -2099,31 +2191,34 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>0</v>
-      </c>
-      <c r="E44" s="3">
-        <v>0</v>
-      </c>
-      <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3">
-        <v>0</v>
+        <v>500</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
@@ -2143,31 +2238,34 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>500</v>
+      </c>
+      <c r="E45" s="3">
         <v>400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>600</v>
       </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
+      <c r="J45" s="3">
+        <v>0</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
@@ -2187,40 +2285,43 @@
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E46" s="3">
         <v>12400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>9900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>14800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>11000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>14300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>100</v>
       </c>
-      <c r="J46" s="3">
-        <v>0</v>
-      </c>
       <c r="K46" s="3">
         <v>0</v>
       </c>
       <c r="L46" s="3">
         <v>0</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
+      <c r="M46" s="3">
+        <v>0</v>
       </c>
       <c r="N46" s="3" t="s">
         <v>3</v>
@@ -2231,19 +2332,22 @@
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E47" s="3">
         <v>300</v>
       </c>
       <c r="F47" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="G47" s="3">
         <v>100</v>
@@ -2251,8 +2355,8 @@
       <c r="H47" s="3">
         <v>100</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
+      <c r="I47" s="3">
+        <v>100</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
@@ -2269,35 +2373,38 @@
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O47" s="3">
-        <v>0</v>
+      <c r="O47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E48" s="3">
         <v>6200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>5400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1000</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2313,14 +2420,17 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O48" s="3">
-        <v>0</v>
+      <c r="O48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2328,7 +2438,7 @@
         <v>200</v>
       </c>
       <c r="E49" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F49" s="3">
         <v>300</v>
@@ -2336,8 +2446,8 @@
       <c r="G49" s="3">
         <v>300</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
+      <c r="H49" s="3">
+        <v>300</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
@@ -2351,8 +2461,8 @@
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M49" s="3">
-        <v>0</v>
+      <c r="M49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N49" s="3">
         <v>0</v>
@@ -2363,8 +2473,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2520,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,38 +2567,41 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>300</v>
+      </c>
+      <c r="E52" s="3">
         <v>400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>100</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0</v>
+      <c r="G52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H52" s="3">
         <v>0</v>
       </c>
       <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3">
         <v>500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>100</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2495,8 +2614,11 @@
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,40 +2661,43 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>16700</v>
+      </c>
+      <c r="E54" s="3">
         <v>19600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>15900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>18000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>13100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>15400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>100</v>
       </c>
-      <c r="L54" s="3">
-        <v>0</v>
-      </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
+      <c r="M54" s="3">
+        <v>0</v>
       </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
@@ -2583,8 +2708,11 @@
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2729,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,41 +2748,42 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E57" s="3">
         <v>1700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1700</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2663,41 +2793,44 @@
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>3</v>
+      <c r="D58" s="3">
+        <v>700</v>
       </c>
       <c r="E58" s="3">
-        <v>2300</v>
+        <v>700</v>
       </c>
       <c r="F58" s="3">
-        <v>1300</v>
+        <v>3000</v>
       </c>
       <c r="G58" s="3">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="H58" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
         <v>800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>100</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2707,41 +2840,44 @@
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1900</v>
+        <v>1300</v>
       </c>
       <c r="E59" s="3">
-        <v>1800</v>
+        <v>1200</v>
       </c>
       <c r="F59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G59" s="3">
+        <v>400</v>
+      </c>
+      <c r="H59" s="3">
+        <v>400</v>
+      </c>
+      <c r="I59" s="3">
+        <v>300</v>
+      </c>
+      <c r="J59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K59" s="3">
         <v>1100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="L59" s="3">
         <v>1000</v>
       </c>
-      <c r="H59" s="3">
-        <v>300</v>
-      </c>
-      <c r="I59" s="3">
-        <v>1200</v>
-      </c>
-      <c r="J59" s="3">
-        <v>1100</v>
-      </c>
-      <c r="K59" s="3">
-        <v>1000</v>
-      </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>800</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2751,8 +2887,11 @@
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2760,32 +2899,32 @@
         <v>3600</v>
       </c>
       <c r="E60" s="3">
+        <v>3600</v>
+      </c>
+      <c r="F60" s="3">
         <v>5200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2700</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2795,22 +2934,25 @@
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E61" s="3">
-        <v>1300</v>
+        <v>200</v>
       </c>
       <c r="F61" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2839,28 +2981,31 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E62" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F62" s="3">
         <v>3000</v>
       </c>
-      <c r="E62" s="3">
-        <v>3400</v>
-      </c>
-      <c r="F62" s="3">
-        <v>1400</v>
-      </c>
       <c r="G62" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="H62" s="3">
         <v>900</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
+      <c r="I62" s="3">
+        <v>900</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
@@ -2877,14 +3022,17 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
+      <c r="O62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3075,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3122,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,41 +3169,44 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E66" s="3">
         <v>6600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>9900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>6600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2700</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3059,8 +3216,11 @@
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3237,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3282,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3329,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3376,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,41 +3423,44 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-67400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-43300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-33400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-27300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-20900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-16200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-13500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-12900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-11700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-10700</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3297,8 +3470,11 @@
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3517,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3564,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,41 +3611,44 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E76" s="3">
         <v>13000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>6000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>11400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>11000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>13700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-3700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-3500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-2900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-2700</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3473,8 +3658,11 @@
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3705,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-24100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-9800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-6200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-6400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-4700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-2700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-4800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-5200</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +3825,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3643,10 +3841,10 @@
         <v>100</v>
       </c>
       <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="H83" s="3">
+        <v>0</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
@@ -3660,8 +3858,8 @@
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M83" s="3">
-        <v>0</v>
+      <c r="M83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N83" s="3">
         <v>0</v>
@@ -3672,8 +3870,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3917,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3964,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4011,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4058,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4105,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-4500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-5000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-4100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-3100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-3700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-300</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
       <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
         <v>-400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-200</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
       <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
         <v>-400</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,25 +4173,26 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
         <v>-200</v>
       </c>
       <c r="F91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G91" s="3">
         <v>-500</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
+      <c r="H91" s="3">
+        <v>0</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
@@ -3986,8 +4206,8 @@
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -3998,8 +4218,11 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4265,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,25 +4312,28 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-7000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-500</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
+      <c r="H94" s="3">
+        <v>0</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -4118,8 +4347,8 @@
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
+      <c r="M94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N94" s="3">
         <v>0</v>
@@ -4130,8 +4359,11 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4380,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4425,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4472,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4519,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,52 +4566,58 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>19600</v>
+      </c>
+      <c r="E100" s="3">
         <v>8400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>8100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>17500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>300</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>200</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>500</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,29 +4660,32 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-3100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-5400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>3500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-3200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>13700</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
         <v>0</v>
       </c>
@@ -4442,18 +4693,21 @@
         <v>0</v>
       </c>
       <c r="L102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M102" s="3">
         <v>-100</v>
       </c>
       <c r="N102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O102" s="3">
         <v>100</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
-      <c r="P102" s="3" t="s">
+      <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ADTX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ADTX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="92">
   <si>
     <t>ADTX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,89 +665,97 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>200</v>
+      </c>
+      <c r="E8" s="3">
+        <v>200</v>
+      </c>
+      <c r="F8" s="3">
         <v>100</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G8" s="3" t="s">
         <v>3</v>
       </c>
@@ -760,11 +768,11 @@
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
-      <c r="L8" s="3">
-        <v>0</v>
+      <c r="K8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M8" s="3">
         <v>0</v>
@@ -781,20 +789,26 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>200</v>
+      </c>
+      <c r="E9" s="3">
+        <v>200</v>
+      </c>
+      <c r="F9" s="3">
         <v>100</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G9" s="3" t="s">
         <v>3</v>
       </c>
@@ -828,19 +842,25 @@
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
         <v>0</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>3</v>
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>3</v>
@@ -875,8 +895,14 @@
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -894,55 +920,63 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F12" s="3">
         <v>1700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>1500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>300</v>
       </c>
-      <c r="J12" s="3">
-        <v>0</v>
-      </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
+        <v>0</v>
+      </c>
+      <c r="M12" s="3">
         <v>200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>100</v>
       </c>
-      <c r="N12" s="3">
-        <v>0</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R12" s="3">
         <v>500</v>
       </c>
-      <c r="Q12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,28 +1022,34 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>2500</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
@@ -1032,11 +1072,17 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1082,8 +1128,14 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,67 +1150,75 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>6300</v>
+      </c>
+      <c r="F17" s="3">
         <v>24100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>8600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>5800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>6100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>4700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>2700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>4800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>5100</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-24000</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1171,29 +1231,35 @@
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3">
         <v>-1000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-1000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-4800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-1200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-5100</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,19 +1277,21 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
         <v>0</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>3</v>
+      <c r="E20" s="3">
+        <v>100</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>3</v>
@@ -1237,11 +1305,11 @@
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3">
-        <v>0</v>
+      <c r="K20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M20" s="3">
         <v>0</v>
@@ -1255,23 +1323,29 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="F21" s="3">
         <v>-23900</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1305,41 +1379,47 @@
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
         <v>1200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>300</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
       <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
         <v>100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>200</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
       <c r="N22" s="3">
         <v>0</v>
       </c>
@@ -1347,60 +1427,72 @@
         <v>0</v>
       </c>
       <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
         <v>100</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="F23" s="3">
         <v>-24100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-9800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-6200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-6400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-4700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-2700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-1200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-1000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-4800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-1200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-5200</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1446,8 +1538,14 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,102 +1591,120 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="F26" s="3">
         <v>-24100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-9800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-6200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-6400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-4700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-2700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-1200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-1000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-4800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-1200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-5200</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-24100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-9800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-6200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-6400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-4700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-2700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-1200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-1000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-4800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-1200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-5200</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1750,14 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1681,8 +1803,14 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1856,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,19 +1909,25 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
         <v>0</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>3</v>
+      <c r="E32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>3</v>
@@ -1801,11 +1941,11 @@
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3">
-        <v>0</v>
+      <c r="K32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M32" s="3">
         <v>0</v>
@@ -1819,58 +1959,70 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="F33" s="3">
         <v>-24100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-9800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-6200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-6400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-4700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-2700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-1200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-1000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-4800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-1200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-5200</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +2068,125 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="F35" s="3">
         <v>-24100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-9800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-6200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-6400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-4700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-2700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-1200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-1000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-4800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-1200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-5200</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2204,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,46 +2225,48 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>800</v>
+      </c>
+      <c r="E41" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F41" s="3">
         <v>7900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>5500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>8600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>14000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>10500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>13700</v>
       </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
       <c r="L41" s="3">
         <v>0</v>
       </c>
       <c r="M41" s="3">
         <v>0</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O41" s="3" t="s">
-        <v>3</v>
+      <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
+        <v>0</v>
       </c>
       <c r="P41" s="3" t="s">
         <v>3</v>
@@ -2100,8 +2274,14 @@
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2147,23 +2327,29 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>900</v>
+      </c>
+      <c r="E43" s="3">
+        <v>700</v>
+      </c>
+      <c r="F43" s="3">
         <v>600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>6500</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2176,11 +2362,11 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L43" s="3">
-        <v>0</v>
-      </c>
-      <c r="M43" s="3">
-        <v>0</v>
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N43" s="3">
         <v>0</v>
@@ -2194,20 +2380,26 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E44" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F44" s="3">
         <v>500</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2220,11 +2412,11 @@
       <c r="J44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K44" s="3">
-        <v>0</v>
-      </c>
-      <c r="L44" s="3">
-        <v>0</v>
+      <c r="K44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M44" s="3">
         <v>0</v>
@@ -2241,37 +2433,43 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>600</v>
+      </c>
+      <c r="E45" s="3">
         <v>500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
+        <v>500</v>
+      </c>
+      <c r="G45" s="3">
         <v>400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>1300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>600</v>
       </c>
-      <c r="J45" s="3">
-        <v>0</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
+      <c r="L45" s="3">
+        <v>0</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
@@ -2288,46 +2486,52 @@
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E46" s="3">
+        <v>4400</v>
+      </c>
+      <c r="F46" s="3">
         <v>9400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>12400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>9900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>14800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>11000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>14300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>100</v>
       </c>
-      <c r="K46" s="3">
-        <v>0</v>
-      </c>
-      <c r="L46" s="3">
-        <v>0</v>
-      </c>
       <c r="M46" s="3">
         <v>0</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O46" s="3" t="s">
-        <v>3</v>
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3">
+        <v>0</v>
       </c>
       <c r="P46" s="3" t="s">
         <v>3</v>
@@ -2335,8 +2539,14 @@
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2344,25 +2554,25 @@
         <v>400</v>
       </c>
       <c r="E47" s="3">
+        <v>400</v>
+      </c>
+      <c r="F47" s="3">
+        <v>400</v>
+      </c>
+      <c r="G47" s="3">
         <v>300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>300</v>
-      </c>
-      <c r="G47" s="3">
-        <v>100</v>
-      </c>
-      <c r="H47" s="3">
-        <v>100</v>
       </c>
       <c r="I47" s="3">
         <v>100</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
+      <c r="J47" s="3">
+        <v>100</v>
+      </c>
+      <c r="K47" s="3">
+        <v>100</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>3</v>
@@ -2376,41 +2586,47 @@
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P47" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="P47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6400</v>
+        <v>6000</v>
       </c>
       <c r="E48" s="3">
         <v>6200</v>
       </c>
       <c r="F48" s="3">
+        <v>6400</v>
+      </c>
+      <c r="G48" s="3">
+        <v>6200</v>
+      </c>
+      <c r="H48" s="3">
         <v>5400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>2800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>1700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>1000</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2423,14 +2639,20 @@
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P48" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2441,19 +2663,19 @@
         <v>200</v>
       </c>
       <c r="F49" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G49" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H49" s="3">
         <v>300</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
+      <c r="I49" s="3">
+        <v>300</v>
+      </c>
+      <c r="J49" s="3">
+        <v>300</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
@@ -2464,11 +2686,11 @@
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N49" s="3">
-        <v>0</v>
-      </c>
-      <c r="O49" s="3">
-        <v>0</v>
+      <c r="N49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P49" s="3">
         <v>0</v>
@@ -2476,8 +2698,14 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2751,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,44 +2804,50 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>500</v>
+      </c>
+      <c r="E52" s="3">
+        <v>500</v>
+      </c>
+      <c r="F52" s="3">
         <v>300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>100</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
+      <c r="I52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3">
         <v>500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>100</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2617,8 +2857,14 @@
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,46 +2910,52 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>10700</v>
+      </c>
+      <c r="E54" s="3">
+        <v>11800</v>
+      </c>
+      <c r="F54" s="3">
         <v>16700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>19600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>15900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>18000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>13100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>15400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>100</v>
       </c>
-      <c r="M54" s="3">
-        <v>0</v>
-      </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O54" s="3" t="s">
-        <v>3</v>
+      <c r="O54" s="3">
+        <v>0</v>
       </c>
       <c r="P54" s="3" t="s">
         <v>3</v>
@@ -2711,8 +2963,14 @@
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2988,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,102 +3009,116 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E57" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F57" s="3">
         <v>1600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>1700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>1200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>1000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>2300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>2000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>1800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>1700</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>900</v>
+      </c>
+      <c r="E58" s="3">
+        <v>600</v>
+      </c>
+      <c r="F58" s="3">
         <v>700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>3000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>2000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>600</v>
       </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
         <v>800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>100</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2852,114 +3126,126 @@
         <v>1300</v>
       </c>
       <c r="E59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G59" s="3">
         <v>1200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>1000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>1100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>1000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>800</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>4500</v>
+      </c>
+      <c r="F60" s="3">
         <v>3600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>3600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>5200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>3400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>1200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>4300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>3700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>3000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>2700</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
         <v>100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>1800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>2500</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -2984,35 +3270,41 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E62" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F62" s="3">
         <v>2800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>2800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>3000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>900</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3025,14 +3317,20 @@
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P62" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3376,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3429,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,55 +3482,67 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E66" s="3">
+        <v>7100</v>
+      </c>
+      <c r="F66" s="3">
         <v>6500</v>
-      </c>
-      <c r="E66" s="3">
-        <v>6600</v>
-      </c>
-      <c r="F66" s="3">
-        <v>9900</v>
       </c>
       <c r="G66" s="3">
         <v>6600</v>
       </c>
       <c r="H66" s="3">
+        <v>9900</v>
+      </c>
+      <c r="I66" s="3">
+        <v>6600</v>
+      </c>
+      <c r="J66" s="3">
         <v>2100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>4300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>3700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>3000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>2700</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3560,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3609,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3662,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3715,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,55 +3768,67 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-79300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-73400</v>
+      </c>
+      <c r="F72" s="3">
         <v>-67400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-43300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-33400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-27300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-20900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-16200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-13500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-12900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-11700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-10700</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3874,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3927,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,55 +3980,67 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E76" s="3">
+        <v>4700</v>
+      </c>
+      <c r="F76" s="3">
         <v>10200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>13000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>6000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>11400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>11000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>13700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-3700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-3500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-2900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-2700</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +4086,125 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="F81" s="3">
         <v>-24100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-9800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-6200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-6400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-4700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-2700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-1200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-1000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-4800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-1200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-5200</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,8 +4222,10 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3844,13 +4242,13 @@
         <v>100</v>
       </c>
       <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="I83" s="3">
+        <v>100</v>
+      </c>
+      <c r="J83" s="3">
+        <v>0</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
@@ -3861,11 +4259,11 @@
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N83" s="3">
-        <v>0</v>
-      </c>
-      <c r="O83" s="3">
-        <v>0</v>
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P83" s="3">
         <v>0</v>
@@ -3873,8 +4271,14 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4324,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4377,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4430,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4483,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,55 +4536,67 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="F89" s="3">
         <v>-8700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-4500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-5000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-4100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-3100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-3700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-300</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
         <v>-400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-200</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
         <v>-400</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,8 +4614,10 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4183,22 +4625,22 @@
         <v>-100</v>
       </c>
       <c r="E91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G91" s="3">
         <v>-200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-500</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
@@ -4209,11 +4651,11 @@
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
-      <c r="O91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
@@ -4221,8 +4663,14 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4716,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,31 +4769,37 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F94" s="3">
         <v>-8500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-7000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-500</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
+      <c r="J94" s="3">
+        <v>0</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
@@ -4350,11 +4810,11 @@
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
-      <c r="O94" s="3">
-        <v>0</v>
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P94" s="3">
         <v>0</v>
@@ -4362,8 +4822,14 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4847,10 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4428,8 +4896,14 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4949,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +5002,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,55 +5055,67 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F100" s="3">
         <v>19600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>8400</v>
-      </c>
-      <c r="F100" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G100" s="3">
-        <v>8100</v>
       </c>
       <c r="H100" s="3">
         <v>-100</v>
       </c>
       <c r="I100" s="3">
+        <v>8100</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K100" s="3">
         <v>17500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>200</v>
-      </c>
-      <c r="K100" s="3">
-        <v>300</v>
-      </c>
-      <c r="L100" s="3">
-        <v>0</v>
       </c>
       <c r="M100" s="3">
         <v>300</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
+        <v>300</v>
+      </c>
+      <c r="P100" s="3">
         <v>200</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>500</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4663,51 +5161,63 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="F102" s="3">
         <v>2400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-3100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-5400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>3500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-3200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>13700</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
         <v>0</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>100</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q102" s="3" t="s">
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ADTX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ADTX_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,100 +665,104 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E8" s="3">
         <v>200</v>
       </c>
       <c r="F8" s="3">
+        <v>200</v>
+      </c>
+      <c r="G8" s="3">
         <v>100</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
       </c>
@@ -774,8 +778,8 @@
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
+      <c r="M8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N8" s="3">
         <v>0</v>
@@ -795,8 +799,11 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -807,11 +814,11 @@
         <v>200</v>
       </c>
       <c r="F9" s="3">
+        <v>200</v>
+      </c>
+      <c r="G9" s="3">
         <v>100</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
       </c>
@@ -848,13 +855,16 @@
       <c r="S9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E10" s="3">
         <v>0</v>
@@ -862,8 +872,8 @@
       <c r="F10" s="3">
         <v>0</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>3</v>
+      <c r="G10" s="3">
+        <v>0</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
@@ -901,8 +911,11 @@
       <c r="S10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,61 +935,65 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E12" s="3">
         <v>1200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1700</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1500</v>
-      </c>
-      <c r="H12" s="3">
-        <v>900</v>
       </c>
       <c r="I12" s="3">
         <v>900</v>
       </c>
       <c r="J12" s="3">
+        <v>900</v>
+      </c>
+      <c r="K12" s="3">
         <v>400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>300</v>
       </c>
-      <c r="L12" s="3">
-        <v>0</v>
-      </c>
       <c r="M12" s="3">
+        <v>0</v>
+      </c>
+      <c r="N12" s="3">
         <v>200</v>
-      </c>
-      <c r="N12" s="3">
-        <v>100</v>
       </c>
       <c r="O12" s="3">
         <v>100</v>
       </c>
       <c r="P12" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R12" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>0</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S12" s="3">
         <v>500</v>
       </c>
-      <c r="S12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,31 +1045,34 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
+      <c r="D14" s="3">
+        <v>0</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>2500</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1078,11 +1098,14 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,76 +1178,80 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E17" s="3">
         <v>6000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>6300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>24100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>8600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>5800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>6100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>4700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>400</v>
-      </c>
-      <c r="M17" s="3">
-        <v>1000</v>
       </c>
       <c r="N17" s="3">
         <v>1000</v>
       </c>
       <c r="O17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="P17" s="3">
         <v>4800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>5100</v>
       </c>
-      <c r="S17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="E18" s="3">
         <v>-5800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-6100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-24000</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1237,29 +1267,32 @@
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M18" s="3">
-        <v>-1000</v>
+      <c r="M18" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N18" s="3">
         <v>-1000</v>
       </c>
       <c r="O18" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="P18" s="3">
         <v>-4800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-5100</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1312,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1288,13 +1322,13 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
+      <c r="G20" s="3">
+        <v>0</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
@@ -1311,8 +1345,8 @@
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
+      <c r="M20" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N20" s="3">
         <v>0</v>
@@ -1329,26 +1363,29 @@
       <c r="R20" s="3">
         <v>0</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E21" s="3">
         <v>-5600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-5900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-23900</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1385,44 +1422,47 @@
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E22" s="3">
         <v>100</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
       <c r="F22" s="3">
         <v>0</v>
       </c>
       <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
         <v>1200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>300</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
       <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
         <v>100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>200</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
       <c r="O22" s="3">
         <v>0</v>
       </c>
@@ -1433,66 +1473,72 @@
         <v>0</v>
       </c>
       <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
         <v>100</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-5900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-6100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-24100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-9800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-6200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-6400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-4700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-4800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-5200</v>
       </c>
-      <c r="S23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1544,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-5900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-6100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-24100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-9800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-6200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-6400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-4700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-4800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-5200</v>
       </c>
-      <c r="S26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-5900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-6100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-24100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-9800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-6200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-6400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-4700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-4800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-5200</v>
       </c>
-      <c r="S27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +1982,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1924,13 +1994,13 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
+      <c r="G32" s="3">
+        <v>0</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
@@ -1947,8 +2017,8 @@
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
+      <c r="M32" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N32" s="3">
         <v>0</v>
@@ -1965,64 +2035,70 @@
       <c r="R32" s="3">
         <v>0</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-5900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-6100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-24100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-9800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-6200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-6400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-4700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-4800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-5200</v>
       </c>
-      <c r="S33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-5900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-6100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-24100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-9800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-6200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-6400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-4700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-4800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-5200</v>
       </c>
-      <c r="S35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,38 +2313,39 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E41" s="3">
         <v>800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>7900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>5500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>8600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>14000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>10500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>13700</v>
       </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
       <c r="M41" s="3">
         <v>0</v>
       </c>
@@ -2268,8 +2355,8 @@
       <c r="O41" s="3">
         <v>0</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>3</v>
+      <c r="P41" s="3">
+        <v>0</v>
       </c>
       <c r="Q41" s="3" t="s">
         <v>3</v>
@@ -2280,8 +2367,11 @@
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,26 +2423,29 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E43" s="3">
         <v>900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>6500</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2368,8 +2461,8 @@
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N43" s="3">
-        <v>0</v>
+      <c r="N43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O43" s="3">
         <v>0</v>
@@ -2386,23 +2479,26 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E44" s="3">
         <v>1300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>500</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2418,8 +2514,8 @@
       <c r="L44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M44" s="3">
-        <v>0</v>
+      <c r="M44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N44" s="3">
         <v>0</v>
@@ -2439,40 +2535,43 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>700</v>
+      </c>
+      <c r="E45" s="3">
         <v>600</v>
-      </c>
-      <c r="E45" s="3">
-        <v>500</v>
       </c>
       <c r="F45" s="3">
         <v>500</v>
       </c>
       <c r="G45" s="3">
+        <v>500</v>
+      </c>
+      <c r="H45" s="3">
         <v>400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>600</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
+      <c r="M45" s="3">
+        <v>0</v>
       </c>
       <c r="N45" s="3" t="s">
         <v>3</v>
@@ -2492,49 +2591,52 @@
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>12600</v>
+      </c>
+      <c r="E46" s="3">
         <v>3600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>4400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>9400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>12400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>9900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>14800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>11000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>14300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>100</v>
       </c>
-      <c r="M46" s="3">
-        <v>0</v>
-      </c>
       <c r="N46" s="3">
         <v>0</v>
       </c>
       <c r="O46" s="3">
         <v>0</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>3</v>
+      <c r="P46" s="3">
+        <v>0</v>
       </c>
       <c r="Q46" s="3" t="s">
         <v>3</v>
@@ -2545,8 +2647,11 @@
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2560,13 +2665,13 @@
         <v>400</v>
       </c>
       <c r="G47" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="H47" s="3">
         <v>300</v>
       </c>
       <c r="I47" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="J47" s="3">
         <v>100</v>
@@ -2574,8 +2679,8 @@
       <c r="K47" s="3">
         <v>100</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>3</v>
+      <c r="L47" s="3">
+        <v>100</v>
       </c>
       <c r="M47" s="3" t="s">
         <v>3</v>
@@ -2592,44 +2697,47 @@
       <c r="Q47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R47" s="3">
-        <v>0</v>
+      <c r="R47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E48" s="3">
         <v>6000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>6200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>6400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>6200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>5400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1000</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2645,19 +2753,22 @@
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R48" s="3">
-        <v>0</v>
+      <c r="R48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E49" s="3">
         <v>200</v>
@@ -2669,7 +2780,7 @@
         <v>200</v>
       </c>
       <c r="H49" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I49" s="3">
         <v>300</v>
@@ -2677,8 +2788,8 @@
       <c r="J49" s="3">
         <v>300</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>3</v>
+      <c r="K49" s="3">
+        <v>300</v>
       </c>
       <c r="L49" s="3" t="s">
         <v>3</v>
@@ -2692,8 +2803,8 @@
       <c r="O49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P49" s="3">
-        <v>0</v>
+      <c r="P49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q49" s="3">
         <v>0</v>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,47 +2927,50 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="E52" s="3">
         <v>500</v>
       </c>
       <c r="F52" s="3">
+        <v>500</v>
+      </c>
+      <c r="G52" s="3">
         <v>300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>100</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
+      <c r="J52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
       </c>
       <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
         <v>500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>100</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,49 +3039,52 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>19200</v>
+      </c>
+      <c r="E54" s="3">
         <v>10700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>11800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>16700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>19600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>15900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>18000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>13100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>15400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>100</v>
       </c>
-      <c r="O54" s="3">
-        <v>0</v>
-      </c>
-      <c r="P54" s="3" t="s">
-        <v>3</v>
+      <c r="P54" s="3">
+        <v>0</v>
       </c>
       <c r="Q54" s="3" t="s">
         <v>3</v>
@@ -2969,8 +3095,11 @@
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,50 +3141,51 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E57" s="3">
         <v>4800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1700</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3064,50 +3195,53 @@
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>300</v>
+      </c>
+      <c r="E58" s="3">
         <v>900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>600</v>
-      </c>
-      <c r="F58" s="3">
-        <v>700</v>
       </c>
       <c r="G58" s="3">
         <v>700</v>
       </c>
       <c r="H58" s="3">
+        <v>700</v>
+      </c>
+      <c r="I58" s="3">
         <v>3000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>600</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
       <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
         <v>800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>100</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3117,8 +3251,11 @@
       <c r="S58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3132,35 +3269,35 @@
         <v>1300</v>
       </c>
       <c r="G59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H59" s="3">
         <v>1200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1000</v>
-      </c>
-      <c r="I59" s="3">
-        <v>400</v>
       </c>
       <c r="J59" s="3">
         <v>400</v>
       </c>
       <c r="K59" s="3">
+        <v>400</v>
+      </c>
+      <c r="L59" s="3">
         <v>300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>800</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3170,50 +3307,53 @@
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E60" s="3">
         <v>7000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4500</v>
-      </c>
-      <c r="F60" s="3">
-        <v>3600</v>
       </c>
       <c r="G60" s="3">
         <v>3600</v>
       </c>
       <c r="H60" s="3">
+        <v>3600</v>
+      </c>
+      <c r="I60" s="3">
         <v>5200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2700</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3223,8 +3363,11 @@
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3235,20 +3378,20 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
         <v>100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2500</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -3276,37 +3419,40 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E62" s="3">
         <v>2300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2600</v>
-      </c>
-      <c r="F62" s="3">
-        <v>2800</v>
       </c>
       <c r="G62" s="3">
         <v>2800</v>
       </c>
       <c r="H62" s="3">
+        <v>2800</v>
+      </c>
+      <c r="I62" s="3">
         <v>3000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>800</v>
-      </c>
-      <c r="J62" s="3">
-        <v>900</v>
       </c>
       <c r="K62" s="3">
         <v>900</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
+      <c r="L62" s="3">
+        <v>900</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
@@ -3323,14 +3469,17 @@
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R62" s="3">
-        <v>0</v>
+      <c r="R62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,50 +3643,53 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E66" s="3">
         <v>9400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>7100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>6500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>6600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>9900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>6600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2700</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3541,8 +3699,11 @@
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,50 +3945,53 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-86800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-79300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-73400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-67400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-43300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-33400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-27300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-20900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-16200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-13500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-12900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-11700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-10700</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3827,8 +4001,11 @@
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,50 +4169,53 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>12700</v>
+      </c>
+      <c r="E76" s="3">
         <v>1400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>4700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>10200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>13000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>6000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>11400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>11000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>13700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-3700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-3500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-2900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-2700</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4039,8 +4225,11 @@
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-5900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-6100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-24100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-9800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-6200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-6400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-4700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-4800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-5200</v>
       </c>
-      <c r="S81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4248,10 +4447,10 @@
         <v>100</v>
       </c>
       <c r="J83" s="3">
-        <v>0</v>
-      </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="K83" s="3">
+        <v>0</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
@@ -4265,8 +4464,8 @@
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P83" s="3">
-        <v>0</v>
+      <c r="P83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q83" s="3">
         <v>0</v>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-2700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-5200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-8700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-4500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-5000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-4100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-3100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-3700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-300</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
       <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
         <v>-400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-200</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
       <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
         <v>-400</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,13 +4836,14 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E91" s="3">
         <v>-100</v>
@@ -4631,19 +4852,19 @@
         <v>-100</v>
       </c>
       <c r="G91" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="H91" s="3">
         <v>-200</v>
       </c>
       <c r="I91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J91" s="3">
         <v>-500</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
@@ -4657,8 +4878,8 @@
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
+      <c r="P91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
@@ -4669,8 +4890,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,34 +5002,37 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-8500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-7000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-500</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
+      <c r="K94" s="3">
+        <v>0</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
@@ -4816,8 +5046,8 @@
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
+      <c r="P94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q94" s="3">
         <v>0</v>
@@ -4828,8 +5058,11 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,61 +5304,67 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>16200</v>
+      </c>
+      <c r="E100" s="3">
         <v>1500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>19600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>8400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>8100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>17500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>300</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>200</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>500</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,38 +5416,41 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-5800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>2400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-3100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-5400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>3500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-3200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>13700</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
         <v>0</v>
       </c>
@@ -5206,18 +5458,21 @@
         <v>0</v>
       </c>
       <c r="O102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P102" s="3">
         <v>-100</v>
       </c>
       <c r="Q102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R102" s="3">
         <v>100</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
-      <c r="S102" s="3" t="s">
+      <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ADTX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ADTX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="92">
   <si>
     <t>ADTX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,110 +665,117 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="V7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E8" s="3">
         <v>200</v>
       </c>
       <c r="F8" s="3">
+        <v>300</v>
+      </c>
+      <c r="G8" s="3">
         <v>200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
+        <v>200</v>
+      </c>
+      <c r="I8" s="3">
         <v>100</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
@@ -781,11 +788,11 @@
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
-      <c r="O8" s="3">
-        <v>0</v>
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P8" s="3">
         <v>0</v>
@@ -802,8 +809,14 @@
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -817,14 +830,14 @@
         <v>200</v>
       </c>
       <c r="G9" s="3">
+        <v>200</v>
+      </c>
+      <c r="H9" s="3">
+        <v>200</v>
+      </c>
+      <c r="I9" s="3">
         <v>100</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
       </c>
@@ -858,28 +871,34 @@
       <c r="T9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
         <v>100</v>
       </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
       <c r="G10" s="3">
         <v>0</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
@@ -914,8 +933,14 @@
       <c r="T10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,64 +961,72 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E12" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F12" s="3">
         <v>1600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>1200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>1400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>1700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>1500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>300</v>
       </c>
-      <c r="M12" s="3">
-        <v>0</v>
-      </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
+        <v>0</v>
+      </c>
+      <c r="P12" s="3">
         <v>200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>100</v>
       </c>
-      <c r="Q12" s="3">
-        <v>0</v>
-      </c>
-      <c r="R12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S12" s="3">
+        <v>0</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U12" s="3">
         <v>500</v>
       </c>
-      <c r="T12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,37 +1081,43 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>2500</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1101,11 +1140,17 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1205,14 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,85 +1230,93 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="3">
+        <v>8400</v>
+      </c>
+      <c r="F17" s="3">
         <v>5700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>6000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>6300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>24100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>8600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>5800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>6100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>4700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>2700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>1000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>4800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>1200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>5100</v>
       </c>
-      <c r="T17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="F18" s="3">
         <v>-5400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-5800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-6100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-24000</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1270,29 +1329,35 @@
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N18" s="3">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P18" s="3">
         <v>-1000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-1000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-4800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-1200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-5100</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,28 +1378,30 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>0</v>
+      <c r="D20" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
+      <c r="I20" s="3">
+        <v>0</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
@@ -1348,11 +1415,11 @@
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-      <c r="O20" s="3">
-        <v>0</v>
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P20" s="3">
         <v>0</v>
@@ -1366,32 +1433,38 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-      <c r="T20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="F21" s="3">
         <v>-5300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-5600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-5900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-23900</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1425,50 +1498,56 @@
       <c r="T21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>200</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
         <v>2200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>100</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
       <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
         <v>1200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>300</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
       <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
         <v>100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>200</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
       <c r="Q22" s="3">
         <v>0</v>
       </c>
@@ -1476,69 +1555,81 @@
         <v>0</v>
       </c>
       <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
         <v>100</v>
       </c>
-      <c r="T22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="F23" s="3">
         <v>-7600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-5900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-6100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-24100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-9800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-6200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-6400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-4700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-2700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-1200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-1000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-4800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-1200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-5200</v>
       </c>
-      <c r="T23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1593,8 +1684,14 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1746,138 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="F26" s="3">
         <v>-7600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-5900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-6100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-24100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-9800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-6200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-6400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-4700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-2700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-1200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-1000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-4800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-1200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-5200</v>
       </c>
-      <c r="T26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="F27" s="3">
         <v>-7600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-5900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-6100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-24100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-9800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-6200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-6400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-4700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-2700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-1200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-1000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-4800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-1200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-5200</v>
       </c>
-      <c r="T27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1932,14 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1994,14 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +2056,14 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,28 +2118,34 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>0</v>
+      <c r="D32" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
+      <c r="I32" s="3">
+        <v>0</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
@@ -2020,11 +2159,11 @@
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
-      <c r="O32" s="3">
-        <v>0</v>
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P32" s="3">
         <v>0</v>
@@ -2038,67 +2177,79 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-      <c r="T32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="F33" s="3">
         <v>-7600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-5900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-6100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-24100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-9800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-6200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-6400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-4700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-2700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-1200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-1000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-4800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-1200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-5200</v>
       </c>
-      <c r="T33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="V33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2304,143 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="F35" s="3">
         <v>-7600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-5900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-6100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-24100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-9800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-6200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-6400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-4700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-2700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-1200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-1000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-4800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-1200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-5200</v>
       </c>
-      <c r="T35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="V35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="V38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2461,10 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,55 +2485,57 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>300</v>
+      </c>
+      <c r="E41" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F41" s="3">
         <v>9200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>2100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>7900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>5500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>8600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>14000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>10500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>13700</v>
       </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
       <c r="O41" s="3">
         <v>0</v>
       </c>
       <c r="P41" s="3">
         <v>0</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R41" s="3" t="s">
-        <v>3</v>
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3">
+        <v>0</v>
       </c>
       <c r="S41" s="3" t="s">
         <v>3</v>
@@ -2370,8 +2543,14 @@
       <c r="T41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,32 +2605,38 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>300</v>
+      </c>
+      <c r="E43" s="3">
+        <v>500</v>
+      </c>
+      <c r="F43" s="3">
         <v>1200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>6500</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2464,11 +2649,11 @@
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O43" s="3">
-        <v>0</v>
-      </c>
-      <c r="P43" s="3">
-        <v>0</v>
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q43" s="3">
         <v>0</v>
@@ -2482,29 +2667,35 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>800</v>
+      </c>
+      <c r="E44" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F44" s="3">
         <v>1400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>1300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>1000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>500</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2517,11 +2708,11 @@
       <c r="M44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N44" s="3">
-        <v>0</v>
-      </c>
-      <c r="O44" s="3">
-        <v>0</v>
+      <c r="N44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P44" s="3">
         <v>0</v>
@@ -2538,46 +2729,52 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>500</v>
+      </c>
+      <c r="E45" s="3">
+        <v>500</v>
+      </c>
+      <c r="F45" s="3">
         <v>700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>1300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>600</v>
       </c>
-      <c r="M45" s="3">
-        <v>0</v>
-      </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O45" s="3" t="s">
-        <v>3</v>
+      <c r="O45" s="3">
+        <v>0</v>
       </c>
       <c r="P45" s="3" t="s">
         <v>3</v>
@@ -2594,55 +2791,61 @@
       <c r="T45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E46" s="3">
+        <v>4700</v>
+      </c>
+      <c r="F46" s="3">
         <v>12600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>3600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>4400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>9400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>12400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>9900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>14800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>11000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>14300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>100</v>
       </c>
-      <c r="N46" s="3">
-        <v>0</v>
-      </c>
-      <c r="O46" s="3">
-        <v>0</v>
-      </c>
       <c r="P46" s="3">
         <v>0</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R46" s="3" t="s">
-        <v>3</v>
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+      <c r="R46" s="3">
+        <v>0</v>
       </c>
       <c r="S46" s="3" t="s">
         <v>3</v>
@@ -2650,8 +2853,14 @@
       <c r="T46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2668,25 +2877,25 @@
         <v>400</v>
       </c>
       <c r="H47" s="3">
+        <v>400</v>
+      </c>
+      <c r="I47" s="3">
+        <v>400</v>
+      </c>
+      <c r="J47" s="3">
         <v>300</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>300</v>
-      </c>
-      <c r="J47" s="3">
-        <v>100</v>
-      </c>
-      <c r="K47" s="3">
-        <v>100</v>
       </c>
       <c r="L47" s="3">
         <v>100</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N47" s="3" t="s">
-        <v>3</v>
+      <c r="M47" s="3">
+        <v>100</v>
+      </c>
+      <c r="N47" s="3">
+        <v>100</v>
       </c>
       <c r="O47" s="3" t="s">
         <v>3</v>
@@ -2700,50 +2909,56 @@
       <c r="R47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S47" s="3">
-        <v>0</v>
-      </c>
-      <c r="T47" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="S47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E48" s="3">
+        <v>5500</v>
+      </c>
+      <c r="F48" s="3">
         <v>5700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>6000</v>
-      </c>
-      <c r="F48" s="3">
-        <v>6200</v>
-      </c>
-      <c r="G48" s="3">
-        <v>6400</v>
       </c>
       <c r="H48" s="3">
         <v>6200</v>
       </c>
       <c r="I48" s="3">
+        <v>6400</v>
+      </c>
+      <c r="J48" s="3">
+        <v>6200</v>
+      </c>
+      <c r="K48" s="3">
         <v>5400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>2800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>1700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>1000</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2756,14 +2971,20 @@
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S48" s="3">
-        <v>0</v>
-      </c>
-      <c r="T48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2771,10 +2992,10 @@
         <v>100</v>
       </c>
       <c r="E49" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F49" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G49" s="3">
         <v>200</v>
@@ -2783,19 +3004,19 @@
         <v>200</v>
       </c>
       <c r="I49" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J49" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K49" s="3">
         <v>300</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M49" s="3" t="s">
-        <v>3</v>
+      <c r="L49" s="3">
+        <v>300</v>
+      </c>
+      <c r="M49" s="3">
+        <v>300</v>
       </c>
       <c r="N49" s="3" t="s">
         <v>3</v>
@@ -2806,11 +3027,11 @@
       <c r="P49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q49" s="3">
-        <v>0</v>
-      </c>
-      <c r="R49" s="3">
-        <v>0</v>
+      <c r="Q49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S49" s="3">
         <v>0</v>
@@ -2818,8 +3039,14 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +3101,14 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,53 +3163,59 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>100</v>
+      </c>
+      <c r="E52" s="3">
+        <v>100</v>
+      </c>
+      <c r="F52" s="3">
         <v>300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>100</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K52" s="3">
-        <v>0</v>
-      </c>
-      <c r="L52" s="3">
-        <v>0</v>
+      <c r="L52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3">
         <v>500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>100</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2986,8 +3225,14 @@
       <c r="T52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,55 +3287,61 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>19200</v>
+        <v>7600</v>
       </c>
       <c r="E54" s="3">
         <v>10700</v>
       </c>
       <c r="F54" s="3">
+        <v>19200</v>
+      </c>
+      <c r="G54" s="3">
+        <v>10700</v>
+      </c>
+      <c r="H54" s="3">
         <v>11800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>16700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>19600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>15900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>18000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>13100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>15400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>100</v>
       </c>
-      <c r="P54" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R54" s="3" t="s">
-        <v>3</v>
+      <c r="R54" s="3">
+        <v>0</v>
       </c>
       <c r="S54" s="3" t="s">
         <v>3</v>
@@ -3098,8 +3349,14 @@
       <c r="T54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3377,10 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,120 +3401,134 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E57" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F57" s="3">
         <v>2700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>4800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>2600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>1600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>1700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>1200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>1000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>2300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>2000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>1800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>1700</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E58" s="3">
+        <v>400</v>
+      </c>
+      <c r="F58" s="3">
         <v>300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>3000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>2000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>600</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
         <v>800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>100</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S58" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3272,102 +3545,114 @@
         <v>1300</v>
       </c>
       <c r="H59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J59" s="3">
         <v>1200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>1000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>1200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>1100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>1000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>800</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E60" s="3">
+        <v>3600</v>
+      </c>
+      <c r="F60" s="3">
         <v>4400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>7000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>4500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>3600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>3600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>5200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>3400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>4300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>3700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>3000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>2700</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3381,23 +3666,23 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
         <v>100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>1800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>2500</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -3422,44 +3707,50 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F62" s="3">
         <v>2100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>2300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>2600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>2800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>2800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>3000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>900</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3472,14 +3763,20 @@
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S62" s="3">
-        <v>0</v>
-      </c>
-      <c r="T62" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3831,14 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3893,14 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3955,76 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>5500</v>
+      </c>
+      <c r="F66" s="3">
         <v>6500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>9400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>7100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>6500</v>
-      </c>
-      <c r="H66" s="3">
-        <v>6600</v>
-      </c>
-      <c r="I66" s="3">
-        <v>9900</v>
       </c>
       <c r="J66" s="3">
         <v>6600</v>
       </c>
       <c r="K66" s="3">
+        <v>9900</v>
+      </c>
+      <c r="L66" s="3">
+        <v>6600</v>
+      </c>
+      <c r="M66" s="3">
         <v>2100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>4300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>3700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>3000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>2700</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +4045,10 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +4103,14 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4165,14 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4227,14 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4289,76 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-101000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-95000</v>
+      </c>
+      <c r="F72" s="3">
         <v>-86800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-79300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-73400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-67400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-43300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-33400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-27300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-20900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-16200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-13500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-12900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-11700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-10700</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4413,14 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4475,14 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4537,76 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>100</v>
+      </c>
+      <c r="E76" s="3">
+        <v>5200</v>
+      </c>
+      <c r="F76" s="3">
         <v>12700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>1400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>4700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>10200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>13000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>6000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>11400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>11000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>13700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-3700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-3500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-2900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4661,143 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="F81" s="3">
         <v>-7600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-5900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-6100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-24100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-9800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-6200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-6400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-4700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-2700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-1200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-1000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-4800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-1200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-5200</v>
       </c>
-      <c r="T81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4818,10 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4432,7 +4829,7 @@
         <v>100</v>
       </c>
       <c r="E83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F83" s="3">
         <v>100</v>
@@ -4450,13 +4847,13 @@
         <v>100</v>
       </c>
       <c r="K83" s="3">
-        <v>0</v>
-      </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="L83" s="3">
+        <v>100</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
       </c>
       <c r="N83" s="3" t="s">
         <v>3</v>
@@ -4467,11 +4864,11 @@
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q83" s="3">
-        <v>0</v>
-      </c>
-      <c r="R83" s="3">
-        <v>0</v>
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S83" s="3">
         <v>0</v>
@@ -4479,8 +4876,14 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4938,14 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +5000,14 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +5062,14 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +5124,14 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +5186,76 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="F89" s="3">
         <v>-7800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-2700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-5200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-8700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-4500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-5000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-4100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-3100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-3700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-300</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
         <v>-400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-200</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3">
         <v>-400</v>
       </c>
-      <c r="T89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5276,10 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4849,28 +5290,28 @@
         <v>-100</v>
       </c>
       <c r="F91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G91" s="3">
         <v>-100</v>
       </c>
       <c r="H91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J91" s="3">
         <v>-200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-500</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
+      <c r="M91" s="3">
+        <v>0</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
@@ -4881,11 +5322,11 @@
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
-      <c r="R91" s="3">
-        <v>0</v>
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
@@ -4893,8 +5334,14 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5396,14 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,40 +5458,46 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>200</v>
+      </c>
+      <c r="F94" s="3">
         <v>100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-8500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-7000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-500</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
+      <c r="M94" s="3">
+        <v>0</v>
       </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
@@ -5049,11 +5508,11 @@
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
-      <c r="R94" s="3">
-        <v>0</v>
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S94" s="3">
         <v>0</v>
@@ -5061,8 +5520,14 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5548,10 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5606,14 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5668,14 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5730,14 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,64 +5792,76 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E100" s="3">
+        <v>100</v>
+      </c>
+      <c r="F100" s="3">
         <v>16200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>1500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>19600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>8400</v>
-      </c>
-      <c r="I100" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J100" s="3">
-        <v>8100</v>
       </c>
       <c r="K100" s="3">
         <v>-100</v>
       </c>
       <c r="L100" s="3">
+        <v>8100</v>
+      </c>
+      <c r="M100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N100" s="3">
         <v>17500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>200</v>
-      </c>
-      <c r="N100" s="3">
-        <v>300</v>
-      </c>
-      <c r="O100" s="3">
-        <v>0</v>
       </c>
       <c r="P100" s="3">
         <v>300</v>
       </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
+        <v>300</v>
+      </c>
+      <c r="S100" s="3">
         <v>200</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>500</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,60 +5916,72 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="F102" s="3">
         <v>8400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-1300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-5800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>2400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-3100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-5400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>3500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-3200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>13700</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>100</v>
       </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
-      <c r="T102" s="3" t="s">
+      <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ADTX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ADTX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="92">
   <si>
     <t>ADTX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,96 +665,100 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -765,20 +769,20 @@
         <v>200</v>
       </c>
       <c r="F8" s="3">
+        <v>200</v>
+      </c>
+      <c r="G8" s="3">
         <v>300</v>
-      </c>
-      <c r="G8" s="3">
-        <v>200</v>
       </c>
       <c r="H8" s="3">
         <v>200</v>
       </c>
       <c r="I8" s="3">
+        <v>200</v>
+      </c>
+      <c r="J8" s="3">
         <v>100</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
@@ -794,8 +798,8 @@
       <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P8" s="3">
-        <v>0</v>
+      <c r="P8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q8" s="3">
         <v>0</v>
@@ -815,8 +819,11 @@
       <c r="V8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -836,11 +843,11 @@
         <v>200</v>
       </c>
       <c r="I9" s="3">
+        <v>200</v>
+      </c>
+      <c r="J9" s="3">
         <v>100</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
@@ -877,8 +884,11 @@
       <c r="V9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -889,19 +899,19 @@
         <v>0</v>
       </c>
       <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
         <v>100</v>
       </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
       <c r="H10" s="3">
         <v>0</v>
       </c>
       <c r="I10" s="3">
         <v>0</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
+      <c r="J10" s="3">
+        <v>0</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
@@ -939,8 +949,11 @@
       <c r="V10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -963,70 +976,74 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>500</v>
+      </c>
+      <c r="E12" s="3">
         <v>1400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>3100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1500</v>
-      </c>
-      <c r="K12" s="3">
-        <v>900</v>
       </c>
       <c r="L12" s="3">
         <v>900</v>
       </c>
       <c r="M12" s="3">
+        <v>900</v>
+      </c>
+      <c r="N12" s="3">
         <v>400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>300</v>
       </c>
-      <c r="O12" s="3">
-        <v>0</v>
-      </c>
       <c r="P12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="3">
         <v>200</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>100</v>
       </c>
       <c r="R12" s="3">
         <v>100</v>
       </c>
       <c r="S12" s="3">
-        <v>0</v>
-      </c>
-      <c r="T12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U12" s="3">
+        <v>100</v>
+      </c>
+      <c r="T12" s="3">
+        <v>0</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V12" s="3">
         <v>500</v>
       </c>
-      <c r="V12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,40 +1104,43 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>2500</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1146,11 +1166,14 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-      <c r="V14" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,94 +1258,98 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>3</v>
+      <c r="D17" s="3">
+        <v>4500</v>
       </c>
       <c r="E17" s="3">
+        <v>6000</v>
+      </c>
+      <c r="F17" s="3">
         <v>8400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>5700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>6000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>6300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>24100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>8600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>400</v>
-      </c>
-      <c r="P17" s="3">
-        <v>1000</v>
       </c>
       <c r="Q17" s="3">
         <v>1000</v>
       </c>
       <c r="R17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="S17" s="3">
         <v>4800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>5100</v>
       </c>
-      <c r="V17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>3</v>
+      <c r="D18" s="3">
+        <v>-4300</v>
       </c>
       <c r="E18" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="F18" s="3">
         <v>-8200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-5400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-5800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-6100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-24000</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1335,29 +1365,32 @@
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P18" s="3">
-        <v>-1000</v>
+      <c r="P18" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q18" s="3">
         <v>-1000</v>
       </c>
       <c r="R18" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="S18" s="3">
         <v>-4800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-1200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-5100</v>
       </c>
-      <c r="V18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,13 +1413,14 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
+      <c r="D20" s="3">
+        <v>0</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1398,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
+      <c r="J20" s="3">
+        <v>0</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
@@ -1421,8 +1455,8 @@
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
+      <c r="P20" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q20" s="3">
         <v>0</v>
@@ -1439,35 +1473,38 @@
       <c r="U20" s="3">
         <v>0</v>
       </c>
-      <c r="V20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>-4100</v>
       </c>
       <c r="E21" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="F21" s="3">
         <v>-8000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-5300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-5600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-5900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-23900</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1504,53 +1541,56 @@
       <c r="V21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E22" s="3">
         <v>200</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
       <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
         <v>2200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>100</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
       <c r="I22" s="3">
         <v>0</v>
       </c>
       <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
         <v>1200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>300</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
       <c r="N22" s="3">
         <v>0</v>
       </c>
       <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
         <v>100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>200</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
       <c r="R22" s="3">
         <v>0</v>
       </c>
@@ -1561,75 +1601,81 @@
         <v>0</v>
       </c>
       <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
         <v>100</v>
       </c>
-      <c r="V22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-6000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-8200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-7600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-5900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-6100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-24100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-9800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-6200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-6400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-4700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-4800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-5200</v>
       </c>
-      <c r="V23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1690,8 +1736,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>3</v>
+      <c r="D26" s="3">
+        <v>-5700</v>
       </c>
       <c r="E26" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="F26" s="3">
         <v>-8200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-7600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-5900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-6100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-24100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-9800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-6200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-6400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-4700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-4800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-5200</v>
       </c>
-      <c r="V26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>3</v>
+      <c r="D27" s="3">
+        <v>-5700</v>
       </c>
       <c r="E27" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="F27" s="3">
         <v>-8200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-7600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-5900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-6100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-24100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-9800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-6200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-6400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-4700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-4800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-5200</v>
       </c>
-      <c r="V27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,13 +2191,16 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>3</v>
+      <c r="D32" s="3">
+        <v>0</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2142,13 +2212,13 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
+      <c r="J32" s="3">
+        <v>0</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
@@ -2165,8 +2235,8 @@
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
+      <c r="P32" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q32" s="3">
         <v>0</v>
@@ -2183,73 +2253,79 @@
       <c r="U32" s="3">
         <v>0</v>
       </c>
-      <c r="V32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>3</v>
+      <c r="D33" s="3">
+        <v>-5700</v>
       </c>
       <c r="E33" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="F33" s="3">
         <v>-8200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-7600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-5900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-6100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-24100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-9800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-6200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-6400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-4700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-4800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-5200</v>
       </c>
-      <c r="V33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>3</v>
+      <c r="D35" s="3">
+        <v>-5700</v>
       </c>
       <c r="E35" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="F35" s="3">
         <v>-8200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-7600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-5900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-6100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-24100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-9800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-6200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-6400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-4700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-4800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-5200</v>
       </c>
-      <c r="V35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,47 +2573,48 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>100</v>
+      </c>
+      <c r="E41" s="3">
         <v>300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>9200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>7900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>5500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>8600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>14000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>10500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>13700</v>
       </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
       <c r="P41" s="3">
         <v>0</v>
       </c>
@@ -2537,8 +2624,8 @@
       <c r="R41" s="3">
         <v>0</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>3</v>
+      <c r="S41" s="3">
+        <v>0</v>
       </c>
       <c r="T41" s="3" t="s">
         <v>3</v>
@@ -2549,8 +2636,11 @@
       <c r="V41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,35 +2701,38 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>400</v>
+      </c>
+      <c r="E43" s="3">
         <v>300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>6500</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2655,8 +2748,8 @@
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q43" s="3">
-        <v>0</v>
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R43" s="3">
         <v>0</v>
@@ -2673,32 +2766,35 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E44" s="3">
         <v>800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>500</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2714,8 +2810,8 @@
       <c r="O44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P44" s="3">
-        <v>0</v>
+      <c r="P44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q44" s="3">
         <v>0</v>
@@ -2735,49 +2831,52 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="E45" s="3">
         <v>500</v>
       </c>
       <c r="F45" s="3">
+        <v>500</v>
+      </c>
+      <c r="G45" s="3">
         <v>700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>600</v>
-      </c>
-      <c r="H45" s="3">
-        <v>500</v>
       </c>
       <c r="I45" s="3">
         <v>500</v>
       </c>
       <c r="J45" s="3">
+        <v>500</v>
+      </c>
+      <c r="K45" s="3">
         <v>400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>600</v>
       </c>
-      <c r="O45" s="3">
-        <v>0</v>
-      </c>
-      <c r="P45" s="3" t="s">
-        <v>3</v>
+      <c r="P45" s="3">
+        <v>0</v>
       </c>
       <c r="Q45" s="3" t="s">
         <v>3</v>
@@ -2797,58 +2896,61 @@
       <c r="V45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E46" s="3">
         <v>1900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>4700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>12600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>9400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>12400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>9900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>14800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>11000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>14300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>100</v>
       </c>
-      <c r="P46" s="3">
-        <v>0</v>
-      </c>
       <c r="Q46" s="3">
         <v>0</v>
       </c>
       <c r="R46" s="3">
         <v>0</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>3</v>
+      <c r="S46" s="3">
+        <v>0</v>
       </c>
       <c r="T46" s="3" t="s">
         <v>3</v>
@@ -2859,13 +2961,16 @@
       <c r="V46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E47" s="3">
         <v>400</v>
@@ -2883,13 +2988,13 @@
         <v>400</v>
       </c>
       <c r="J47" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K47" s="3">
         <v>300</v>
       </c>
       <c r="L47" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="M47" s="3">
         <v>100</v>
@@ -2897,8 +3002,8 @@
       <c r="N47" s="3">
         <v>100</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>3</v>
+      <c r="O47" s="3">
+        <v>100</v>
       </c>
       <c r="P47" s="3" t="s">
         <v>3</v>
@@ -2915,53 +3020,56 @@
       <c r="T47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U47" s="3">
-        <v>0</v>
+      <c r="U47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E48" s="3">
         <v>5100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>5500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>5700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>6000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>6200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>6400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>6200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1000</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2977,14 +3085,17 @@
       <c r="T48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U48" s="3">
-        <v>0</v>
+      <c r="U48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2998,7 +3109,7 @@
         <v>100</v>
       </c>
       <c r="G49" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H49" s="3">
         <v>200</v>
@@ -3010,7 +3121,7 @@
         <v>200</v>
       </c>
       <c r="K49" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L49" s="3">
         <v>300</v>
@@ -3018,8 +3129,8 @@
       <c r="M49" s="3">
         <v>300</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>3</v>
+      <c r="N49" s="3">
+        <v>300</v>
       </c>
       <c r="O49" s="3" t="s">
         <v>3</v>
@@ -3033,8 +3144,8 @@
       <c r="R49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S49" s="3">
-        <v>0</v>
+      <c r="S49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T49" s="3">
         <v>0</v>
@@ -3045,8 +3156,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,56 +3286,59 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E52" s="3">
         <v>100</v>
       </c>
       <c r="F52" s="3">
+        <v>100</v>
+      </c>
+      <c r="G52" s="3">
         <v>300</v>
-      </c>
-      <c r="G52" s="3">
-        <v>500</v>
       </c>
       <c r="H52" s="3">
         <v>500</v>
       </c>
       <c r="I52" s="3">
+        <v>500</v>
+      </c>
+      <c r="J52" s="3">
         <v>300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>100</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M52" s="3">
-        <v>0</v>
+      <c r="M52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N52" s="3">
         <v>0</v>
       </c>
       <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3">
         <v>500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>100</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3231,8 +3351,11 @@
       <c r="V52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,58 +3416,61 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E54" s="3">
         <v>7600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>10700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>19200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>10700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>11800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>16700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>19600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>15900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>18000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>13100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>15400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>100</v>
       </c>
-      <c r="R54" s="3">
-        <v>0</v>
-      </c>
-      <c r="S54" s="3" t="s">
-        <v>3</v>
+      <c r="S54" s="3">
+        <v>0</v>
       </c>
       <c r="T54" s="3" t="s">
         <v>3</v>
@@ -3355,8 +3481,11 @@
       <c r="V54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,59 +3533,60 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E57" s="3">
         <v>3200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1700</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3465,59 +3596,62 @@
       <c r="V57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E58" s="3">
         <v>1400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>600</v>
-      </c>
-      <c r="I58" s="3">
-        <v>700</v>
       </c>
       <c r="J58" s="3">
         <v>700</v>
       </c>
       <c r="K58" s="3">
+        <v>700</v>
+      </c>
+      <c r="L58" s="3">
         <v>3000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>600</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
-      </c>
       <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
         <v>800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>100</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3527,8 +3661,11 @@
       <c r="V58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3551,35 +3688,35 @@
         <v>1300</v>
       </c>
       <c r="J59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K59" s="3">
         <v>1200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1000</v>
-      </c>
-      <c r="L59" s="3">
-        <v>400</v>
       </c>
       <c r="M59" s="3">
         <v>400</v>
       </c>
       <c r="N59" s="3">
+        <v>400</v>
+      </c>
+      <c r="O59" s="3">
         <v>300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>800</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3589,59 +3726,62 @@
       <c r="V59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E60" s="3">
         <v>5900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>7000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>4500</v>
-      </c>
-      <c r="I60" s="3">
-        <v>3600</v>
       </c>
       <c r="J60" s="3">
         <v>3600</v>
       </c>
       <c r="K60" s="3">
+        <v>3600</v>
+      </c>
+      <c r="L60" s="3">
         <v>5200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>4300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2700</v>
       </c>
-      <c r="S60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3651,8 +3791,11 @@
       <c r="V60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3672,20 +3815,20 @@
         <v>0</v>
       </c>
       <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
         <v>100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2500</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -3713,46 +3856,49 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E62" s="3">
         <v>1700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2600</v>
-      </c>
-      <c r="I62" s="3">
-        <v>2800</v>
       </c>
       <c r="J62" s="3">
         <v>2800</v>
       </c>
       <c r="K62" s="3">
+        <v>2800</v>
+      </c>
+      <c r="L62" s="3">
         <v>3000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>800</v>
-      </c>
-      <c r="M62" s="3">
-        <v>900</v>
       </c>
       <c r="N62" s="3">
         <v>900</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>3</v>
+      <c r="O62" s="3">
+        <v>900</v>
       </c>
       <c r="P62" s="3" t="s">
         <v>3</v>
@@ -3769,14 +3915,17 @@
       <c r="T62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U62" s="3">
-        <v>0</v>
+      <c r="U62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,59 +4116,62 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E66" s="3">
         <v>7600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>6500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>9400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>7100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>6500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>6600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>9900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2700</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4023,8 +4181,11 @@
       <c r="V66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,59 +4466,62 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-106700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-101000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-95000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-86800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-79300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-73400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-67400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-43300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-33400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-27300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-20900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-16200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-13500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-12900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-11700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-10700</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4357,8 +4531,11 @@
       <c r="V72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,59 +4726,62 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E76" s="3">
         <v>100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>5200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>12700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>4700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>10200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>13000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>6000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>11400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>11000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>13700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-3700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-3500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-2900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-2700</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4605,8 +4791,11 @@
       <c r="V76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>3</v>
+      <c r="D81" s="3">
+        <v>-5700</v>
       </c>
       <c r="E81" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="F81" s="3">
         <v>-8200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-7600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-5900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-6100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-24100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-9800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-6200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-6400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-4700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-4800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-5200</v>
       </c>
-      <c r="V81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4829,10 +5028,10 @@
         <v>100</v>
       </c>
       <c r="E83" s="3">
+        <v>100</v>
+      </c>
+      <c r="F83" s="3">
         <v>200</v>
-      </c>
-      <c r="F83" s="3">
-        <v>100</v>
       </c>
       <c r="G83" s="3">
         <v>100</v>
@@ -4853,10 +5052,10 @@
         <v>100</v>
       </c>
       <c r="M83" s="3">
-        <v>0</v>
-      </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0</v>
       </c>
       <c r="O83" s="3" t="s">
         <v>3</v>
@@ -4870,8 +5069,8 @@
       <c r="R83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S83" s="3">
-        <v>0</v>
+      <c r="S83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T83" s="3">
         <v>0</v>
@@ -4882,8 +5081,11 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-4000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-6700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-7800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-2700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-5200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-8700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-4500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-5000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-4100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-3100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-3700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-300</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
       <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
         <v>-400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-200</v>
       </c>
-      <c r="T89" s="3">
-        <v>0</v>
-      </c>
       <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
         <v>-400</v>
       </c>
-      <c r="V89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,8 +5498,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5287,13 +5508,13 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H91" s="3">
         <v>-100</v>
@@ -5302,19 +5523,19 @@
         <v>-100</v>
       </c>
       <c r="J91" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="K91" s="3">
         <v>-200</v>
       </c>
       <c r="L91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M91" s="3">
         <v>-500</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
+      <c r="N91" s="3">
+        <v>0</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>3</v>
@@ -5328,8 +5549,8 @@
       <c r="R91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
+      <c r="S91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T91" s="3">
         <v>0</v>
@@ -5340,8 +5561,11 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,8 +5691,11 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5473,34 +5703,34 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-8500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-7000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-500</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
+      <c r="N94" s="3">
+        <v>0</v>
       </c>
       <c r="O94" s="3" t="s">
         <v>3</v>
@@ -5514,8 +5744,8 @@
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
+      <c r="S94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T94" s="3">
         <v>0</v>
@@ -5526,8 +5756,11 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,70 +6041,76 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E100" s="3">
         <v>1500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>16200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>19600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>8400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>8100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>17500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>300</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>200</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
       <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>500</v>
       </c>
-      <c r="V100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,47 +6171,50 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-2500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-6500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>8400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-5800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>2400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-3100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-5400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>3500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-3200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>13700</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
         <v>0</v>
       </c>
@@ -5970,18 +6222,21 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S102" s="3">
         <v>-100</v>
       </c>
       <c r="T102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U102" s="3">
         <v>100</v>
       </c>
-      <c r="U102" s="3">
-        <v>0</v>
-      </c>
-      <c r="V102" s="3" t="s">
+      <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ADTX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ADTX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="92">
   <si>
     <t>ADTX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,105 +665,109 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E8" s="3">
         <v>200</v>
@@ -772,20 +776,20 @@
         <v>200</v>
       </c>
       <c r="G8" s="3">
+        <v>200</v>
+      </c>
+      <c r="H8" s="3">
         <v>300</v>
-      </c>
-      <c r="H8" s="3">
-        <v>200</v>
       </c>
       <c r="I8" s="3">
         <v>200</v>
       </c>
       <c r="J8" s="3">
+        <v>200</v>
+      </c>
+      <c r="K8" s="3">
         <v>100</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
@@ -801,8 +805,8 @@
       <c r="P8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q8" s="3">
-        <v>0</v>
+      <c r="Q8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R8" s="3">
         <v>0</v>
@@ -822,13 +826,16 @@
       <c r="W8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E9" s="3">
         <v>200</v>
@@ -846,11 +853,11 @@
         <v>200</v>
       </c>
       <c r="J9" s="3">
+        <v>200</v>
+      </c>
+      <c r="K9" s="3">
         <v>100</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
@@ -887,8 +894,11 @@
       <c r="W9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -902,19 +912,19 @@
         <v>0</v>
       </c>
       <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
         <v>100</v>
       </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
       <c r="I10" s="3">
         <v>0</v>
       </c>
       <c r="J10" s="3">
         <v>0</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
+      <c r="K10" s="3">
+        <v>0</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>3</v>
@@ -952,8 +962,11 @@
       <c r="W10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,73 +990,77 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>900</v>
+      </c>
+      <c r="E12" s="3">
         <v>500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>3100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1500</v>
-      </c>
-      <c r="L12" s="3">
-        <v>900</v>
       </c>
       <c r="M12" s="3">
         <v>900</v>
       </c>
       <c r="N12" s="3">
+        <v>900</v>
+      </c>
+      <c r="O12" s="3">
         <v>400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>300</v>
       </c>
-      <c r="P12" s="3">
-        <v>0</v>
-      </c>
       <c r="Q12" s="3">
+        <v>0</v>
+      </c>
+      <c r="R12" s="3">
         <v>200</v>
-      </c>
-      <c r="R12" s="3">
-        <v>100</v>
       </c>
       <c r="S12" s="3">
         <v>100</v>
       </c>
       <c r="T12" s="3">
-        <v>0</v>
-      </c>
-      <c r="U12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V12" s="3">
+        <v>100</v>
+      </c>
+      <c r="U12" s="3">
+        <v>0</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W12" s="3">
         <v>500</v>
       </c>
-      <c r="W12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,8 +1124,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1118,32 +1138,32 @@
       <c r="E14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>2500</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1169,11 +1189,14 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-      <c r="W14" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,100 +1285,104 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="3">
         <v>4500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>6000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>8400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>5700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>6000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>6300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>24100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>8600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>6100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>400</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>1000</v>
       </c>
       <c r="R17" s="3">
         <v>1000</v>
       </c>
       <c r="S17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="T17" s="3">
         <v>4800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>5100</v>
       </c>
-      <c r="W17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="3">
         <v>-4300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-5800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-8200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-5400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-5800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-6100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-24000</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1368,29 +1398,32 @@
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q18" s="3">
-        <v>-1000</v>
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R18" s="3">
         <v>-1000</v>
       </c>
       <c r="S18" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="T18" s="3">
         <v>-4800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-1200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-5100</v>
       </c>
-      <c r="W18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,13 +1447,14 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>0</v>
+      <c r="D20" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1435,13 +1469,13 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
+      <c r="K20" s="3">
+        <v>0</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
@@ -1458,8 +1492,8 @@
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R20" s="3">
         <v>0</v>
@@ -1476,38 +1510,41 @@
       <c r="V20" s="3">
         <v>0</v>
       </c>
-      <c r="W20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="3">
         <v>-4100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-5600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-8000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-5300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-5600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-5900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-23900</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1544,56 +1581,59 @@
       <c r="W21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E22" s="3">
         <v>1400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>200</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
       <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
         <v>2200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>100</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
       <c r="J22" s="3">
         <v>0</v>
       </c>
       <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
         <v>1200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>300</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
       <c r="O22" s="3">
         <v>0</v>
       </c>
       <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
         <v>100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>200</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
-      </c>
       <c r="S22" s="3">
         <v>0</v>
       </c>
@@ -1604,78 +1644,84 @@
         <v>0</v>
       </c>
       <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3">
         <v>100</v>
       </c>
-      <c r="W22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-5700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-6000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-8200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-7600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-5900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-6100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-24100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-9800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-6200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-6400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-4700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-4800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-1200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-5200</v>
       </c>
-      <c r="W23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1739,8 +1785,11 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="3">
         <v>-5700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-6000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-8200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-7600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-5900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-6100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-24100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-9800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-6200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-6400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-4700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-2700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-4800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-1200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-5200</v>
       </c>
-      <c r="W26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="3">
         <v>-5700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-6000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-8200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-7600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-5900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-6100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-24100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-9800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-6200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-6400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-4700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-2700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-4800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-5200</v>
       </c>
-      <c r="W27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,13 +2261,16 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>0</v>
+      <c r="D32" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2215,13 +2285,13 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
+      <c r="K32" s="3">
+        <v>0</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
@@ -2238,8 +2308,8 @@
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R32" s="3">
         <v>0</v>
@@ -2256,76 +2326,82 @@
       <c r="V32" s="3">
         <v>0</v>
       </c>
-      <c r="W32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="3">
         <v>-5700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-6000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-8200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-7600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-5900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-6100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-24100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-9800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-6200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-6400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-4700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-2700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-4800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-1200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-5200</v>
       </c>
-      <c r="W33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="3">
         <v>-5700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-6000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-8200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-7600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-5900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-6100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-24100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-9800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-6200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-6400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-4700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-2700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-4800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-1200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-5200</v>
       </c>
-      <c r="W35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,50 +2660,51 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E41" s="3">
         <v>100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>9200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>7900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>8600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>14000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>10500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>13700</v>
       </c>
-      <c r="P41" s="3">
-        <v>0</v>
-      </c>
       <c r="Q41" s="3">
         <v>0</v>
       </c>
@@ -2627,8 +2714,8 @@
       <c r="S41" s="3">
         <v>0</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>3</v>
+      <c r="T41" s="3">
+        <v>0</v>
       </c>
       <c r="U41" s="3" t="s">
         <v>3</v>
@@ -2639,8 +2726,11 @@
       <c r="W41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,8 +2794,11 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2713,29 +2806,29 @@
         <v>400</v>
       </c>
       <c r="E43" s="3">
+        <v>400</v>
+      </c>
+      <c r="F43" s="3">
         <v>300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>6500</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2751,8 +2844,8 @@
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R43" s="3">
-        <v>0</v>
+      <c r="R43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S43" s="3">
         <v>0</v>
@@ -2769,35 +2862,38 @@
       <c r="W43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>900</v>
+      </c>
+      <c r="E44" s="3">
         <v>1000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>500</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2813,8 +2909,8 @@
       <c r="P44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q44" s="3">
-        <v>0</v>
+      <c r="Q44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R44" s="3">
         <v>0</v>
@@ -2834,52 +2930,55 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>600</v>
+      </c>
+      <c r="E45" s="3">
         <v>700</v>
-      </c>
-      <c r="E45" s="3">
-        <v>500</v>
       </c>
       <c r="F45" s="3">
         <v>500</v>
       </c>
       <c r="G45" s="3">
+        <v>500</v>
+      </c>
+      <c r="H45" s="3">
         <v>700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>600</v>
-      </c>
-      <c r="I45" s="3">
-        <v>500</v>
       </c>
       <c r="J45" s="3">
         <v>500</v>
       </c>
       <c r="K45" s="3">
+        <v>500</v>
+      </c>
+      <c r="L45" s="3">
         <v>400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>600</v>
       </c>
-      <c r="P45" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="3" t="s">
-        <v>3</v>
+      <c r="Q45" s="3">
+        <v>0</v>
       </c>
       <c r="R45" s="3" t="s">
         <v>3</v>
@@ -2899,61 +2998,64 @@
       <c r="W45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E46" s="3">
         <v>2100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>4700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>12600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>4400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>9400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>12400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>9900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>14800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>11000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>14300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>100</v>
       </c>
-      <c r="Q46" s="3">
-        <v>0</v>
-      </c>
       <c r="R46" s="3">
         <v>0</v>
       </c>
       <c r="S46" s="3">
         <v>0</v>
       </c>
-      <c r="T46" s="3" t="s">
-        <v>3</v>
+      <c r="T46" s="3">
+        <v>0</v>
       </c>
       <c r="U46" s="3" t="s">
         <v>3</v>
@@ -2964,8 +3066,11 @@
       <c r="W46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2973,7 +3078,7 @@
         <v>300</v>
       </c>
       <c r="E47" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F47" s="3">
         <v>400</v>
@@ -2991,13 +3096,13 @@
         <v>400</v>
       </c>
       <c r="K47" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L47" s="3">
         <v>300</v>
       </c>
       <c r="M47" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N47" s="3">
         <v>100</v>
@@ -3005,8 +3110,8 @@
       <c r="O47" s="3">
         <v>100</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>3</v>
+      <c r="P47" s="3">
+        <v>100</v>
       </c>
       <c r="Q47" s="3" t="s">
         <v>3</v>
@@ -3023,56 +3128,59 @@
       <c r="U47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V47" s="3">
-        <v>0</v>
+      <c r="V47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E48" s="3">
         <v>4800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>5100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>5500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>5700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>6000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>6200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>6400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>6200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1000</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3088,19 +3196,22 @@
       <c r="U48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V48" s="3">
-        <v>0</v>
+      <c r="V48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="W48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E49" s="3">
         <v>100</v>
@@ -3112,7 +3223,7 @@
         <v>100</v>
       </c>
       <c r="H49" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I49" s="3">
         <v>200</v>
@@ -3124,7 +3235,7 @@
         <v>200</v>
       </c>
       <c r="L49" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M49" s="3">
         <v>300</v>
@@ -3132,8 +3243,8 @@
       <c r="N49" s="3">
         <v>300</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>3</v>
+      <c r="O49" s="3">
+        <v>300</v>
       </c>
       <c r="P49" s="3" t="s">
         <v>3</v>
@@ -3147,8 +3258,8 @@
       <c r="S49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T49" s="3">
-        <v>0</v>
+      <c r="T49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U49" s="3">
         <v>0</v>
@@ -3159,8 +3270,11 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,8 +3406,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3298,50 +3418,50 @@
         <v>0</v>
       </c>
       <c r="E52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F52" s="3">
         <v>100</v>
       </c>
       <c r="G52" s="3">
+        <v>100</v>
+      </c>
+      <c r="H52" s="3">
         <v>300</v>
-      </c>
-      <c r="H52" s="3">
-        <v>500</v>
       </c>
       <c r="I52" s="3">
         <v>500</v>
       </c>
       <c r="J52" s="3">
+        <v>500</v>
+      </c>
+      <c r="K52" s="3">
         <v>300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>100</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N52" s="3">
-        <v>0</v>
+      <c r="N52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O52" s="3">
         <v>0</v>
       </c>
       <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3">
         <v>500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>100</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3354,8 +3474,11 @@
       <c r="W52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,61 +3542,64 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E54" s="3">
         <v>7300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>7600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>10700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>19200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>10700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>11800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>16700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>19600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>15900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>18000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>13100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>15400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>100</v>
       </c>
-      <c r="S54" s="3">
-        <v>0</v>
-      </c>
-      <c r="T54" s="3" t="s">
-        <v>3</v>
+      <c r="T54" s="3">
+        <v>0</v>
       </c>
       <c r="U54" s="3" t="s">
         <v>3</v>
@@ -3484,8 +3610,11 @@
       <c r="W54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,62 +3664,63 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E57" s="3">
         <v>5400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1700</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3599,62 +3730,65 @@
       <c r="W57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E58" s="3">
         <v>3100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>600</v>
-      </c>
-      <c r="J58" s="3">
-        <v>700</v>
       </c>
       <c r="K58" s="3">
         <v>700</v>
       </c>
       <c r="L58" s="3">
+        <v>700</v>
+      </c>
+      <c r="M58" s="3">
         <v>3000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>600</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
-      </c>
       <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3">
         <v>800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>100</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3664,13 +3798,16 @@
       <c r="W58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1300</v>
+        <v>2900</v>
       </c>
       <c r="E59" s="3">
         <v>1300</v>
@@ -3691,35 +3828,35 @@
         <v>1300</v>
       </c>
       <c r="K59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="L59" s="3">
         <v>1200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1000</v>
-      </c>
-      <c r="M59" s="3">
-        <v>400</v>
       </c>
       <c r="N59" s="3">
         <v>400</v>
       </c>
       <c r="O59" s="3">
+        <v>400</v>
+      </c>
+      <c r="P59" s="3">
         <v>300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>800</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3729,62 +3866,65 @@
       <c r="W59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E60" s="3">
         <v>9700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>5900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>7000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4500</v>
-      </c>
-      <c r="J60" s="3">
-        <v>3600</v>
       </c>
       <c r="K60" s="3">
         <v>3600</v>
       </c>
       <c r="L60" s="3">
+        <v>3600</v>
+      </c>
+      <c r="M60" s="3">
         <v>5200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>4300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2700</v>
       </c>
-      <c r="T60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3794,8 +3934,11 @@
       <c r="W60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3818,20 +3961,20 @@
         <v>0</v>
       </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2500</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -3859,49 +4002,52 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E62" s="3">
         <v>1400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2600</v>
-      </c>
-      <c r="J62" s="3">
-        <v>2800</v>
       </c>
       <c r="K62" s="3">
         <v>2800</v>
       </c>
       <c r="L62" s="3">
+        <v>2800</v>
+      </c>
+      <c r="M62" s="3">
         <v>3000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>800</v>
-      </c>
-      <c r="N62" s="3">
-        <v>900</v>
       </c>
       <c r="O62" s="3">
         <v>900</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>3</v>
+      <c r="P62" s="3">
+        <v>900</v>
       </c>
       <c r="Q62" s="3" t="s">
         <v>3</v>
@@ -3918,14 +4064,17 @@
       <c r="U62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V62" s="3">
-        <v>0</v>
+      <c r="V62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,62 +4274,65 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>12400</v>
+      </c>
+      <c r="E66" s="3">
         <v>11200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>7600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>6500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>9400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>7100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>6500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>9900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2700</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4184,8 +4342,11 @@
       <c r="W66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,62 +4640,65 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-116600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-106700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-101000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-95000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-86800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-79300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-73400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-67400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-43300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-33400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-27300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-20900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-16200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-13500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-12900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-11700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-10700</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4534,8 +4708,11 @@
       <c r="W72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,62 +4912,65 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E76" s="3">
         <v>-3900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>5200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>12700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>4700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>10200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>13000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>6000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>11400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>11000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>13700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-3700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-3500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-2900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-2700</v>
       </c>
-      <c r="T76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4794,8 +4980,11 @@
       <c r="W76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81" s="3">
         <v>-5700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-6000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-8200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-7600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-5900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-6100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-24100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-9800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-6200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-6400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-4700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-2700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-4800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-1200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-5200</v>
       </c>
-      <c r="W81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5031,10 +5230,10 @@
         <v>100</v>
       </c>
       <c r="F83" s="3">
+        <v>100</v>
+      </c>
+      <c r="G83" s="3">
         <v>200</v>
-      </c>
-      <c r="G83" s="3">
-        <v>100</v>
       </c>
       <c r="H83" s="3">
         <v>100</v>
@@ -5055,10 +5254,10 @@
         <v>100</v>
       </c>
       <c r="N83" s="3">
-        <v>0</v>
-      </c>
-      <c r="O83" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="O83" s="3">
+        <v>0</v>
       </c>
       <c r="P83" s="3" t="s">
         <v>3</v>
@@ -5072,8 +5271,8 @@
       <c r="S83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T83" s="3">
-        <v>0</v>
+      <c r="T83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U83" s="3">
         <v>0</v>
@@ -5084,8 +5283,11 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-3300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-4000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-6700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-7800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-2700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-5200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-8700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-4500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-5000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-4100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-3100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-3700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-300</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
       <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
         <v>-400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-200</v>
       </c>
-      <c r="U89" s="3">
-        <v>0</v>
-      </c>
       <c r="V89" s="3">
+        <v>0</v>
+      </c>
+      <c r="W89" s="3">
         <v>-400</v>
       </c>
-      <c r="W89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,8 +5719,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5511,13 +5732,13 @@
         <v>0</v>
       </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I91" s="3">
         <v>-100</v>
@@ -5526,19 +5747,19 @@
         <v>-100</v>
       </c>
       <c r="K91" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="L91" s="3">
         <v>-200</v>
       </c>
       <c r="M91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N91" s="3">
         <v>-500</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
-      <c r="O91" s="3" t="s">
-        <v>3</v>
+      <c r="O91" s="3">
+        <v>0</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>3</v>
@@ -5552,8 +5773,8 @@
       <c r="S91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T91" s="3">
-        <v>0</v>
+      <c r="T91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U91" s="3">
         <v>0</v>
@@ -5564,8 +5785,11 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,8 +5921,11 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5706,34 +5936,34 @@
         <v>0</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-8500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-7000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-500</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
+      <c r="O94" s="3">
+        <v>0</v>
       </c>
       <c r="P94" s="3" t="s">
         <v>3</v>
@@ -5747,8 +5977,8 @@
       <c r="S94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
+      <c r="T94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U94" s="3">
         <v>0</v>
@@ -5759,8 +5989,11 @@
       <c r="W94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,73 +6287,79 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E100" s="3">
         <v>3100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>16200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>19600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>8400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>8100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>17500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>300</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>200</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
       <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
         <v>500</v>
       </c>
-      <c r="W100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,50 +6423,53 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-2500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-6500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>8400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-5800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>2400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-3100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-5400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>3500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-3200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>13700</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
         <v>0</v>
       </c>
@@ -6225,18 +6477,21 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T102" s="3">
         <v>-100</v>
       </c>
       <c r="U102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V102" s="3">
         <v>100</v>
       </c>
-      <c r="V102" s="3">
-        <v>0</v>
-      </c>
-      <c r="W102" s="3" t="s">
+      <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
